--- a/Brent3COVIDMetrics/rollingTrainMetrics.xlsx
+++ b/Brent3COVIDMetrics/rollingTrainMetrics.xlsx
@@ -521,28 +521,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.555</v>
+        <v>0.548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.888</v>
+        <v>0.894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.87</v>
+        <v>0.877</v>
       </c>
       <c r="G3" t="n">
-        <v>0.073</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="J3" t="n">
         <v>0.974</v>
@@ -564,22 +564,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.922</v>
+        <v>0.883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.91</v>
+        <v>0.865</v>
       </c>
       <c r="G4" t="n">
-        <v>0.051</v>
+        <v>0.076</v>
       </c>
       <c r="H4" t="n">
-        <v>0.226</v>
+        <v>0.276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.172</v>
+        <v>0.209</v>
       </c>
       <c r="J4" t="n">
-        <v>0.962</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.747</v>
+        <v>0.846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.73</v>
+        <v>0.835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.172</v>
+        <v>0.105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.415</v>
+        <v>0.324</v>
       </c>
       <c r="I5" t="n">
-        <v>0.32</v>
+        <v>0.251</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.574</v>
+        <v>0.573</v>
       </c>
       <c r="F6" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="G6" t="n">
-        <v>0.276</v>
+        <v>0.277</v>
       </c>
       <c r="H6" t="n">
-        <v>0.525</v>
+        <v>0.526</v>
       </c>
       <c r="I6" t="n">
-        <v>0.403</v>
+        <v>0.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0.824</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.858</v>
+        <v>0.851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.631</v>
+        <v>0.63</v>
       </c>
       <c r="E8" t="n">
-        <v>0.893</v>
+        <v>0.897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.877</v>
+        <v>0.882</v>
       </c>
       <c r="G8" t="n">
-        <v>0.106</v>
+        <v>0.102</v>
       </c>
       <c r="H8" t="n">
-        <v>0.326</v>
+        <v>0.319</v>
       </c>
       <c r="I8" t="n">
-        <v>0.224</v>
+        <v>0.225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.41</v>
+        <v>0.666</v>
       </c>
       <c r="F9" t="n">
-        <v>1.295</v>
+        <v>1.167</v>
       </c>
       <c r="G9" t="n">
-        <v>4.069</v>
+        <v>2.307</v>
       </c>
       <c r="H9" t="n">
-        <v>2.017</v>
+        <v>1.519</v>
       </c>
       <c r="I9" t="n">
-        <v>1.765</v>
+        <v>1.067</v>
       </c>
       <c r="J9" t="n">
-        <v>0.67</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.026</v>
+        <v>0.368</v>
       </c>
       <c r="F10" t="n">
-        <v>3.922</v>
+        <v>2.896</v>
       </c>
       <c r="G10" t="n">
-        <v>6.719</v>
+        <v>4.359</v>
       </c>
       <c r="H10" t="n">
-        <v>2.592</v>
+        <v>2.088</v>
       </c>
       <c r="I10" t="n">
-        <v>1.917</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
-        <v>0.492</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.653</v>
+        <v>0.657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.602</v>
+        <v>0.606</v>
       </c>
       <c r="G11" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="H11" t="n">
-        <v>0.587</v>
+        <v>0.583</v>
       </c>
       <c r="I11" t="n">
-        <v>0.436</v>
+        <v>0.423</v>
       </c>
       <c r="J11" t="n">
-        <v>0.85</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="12">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.795</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.796</v>
-      </c>
       <c r="D13" t="n">
-        <v>0.612</v>
+        <v>0.607</v>
       </c>
       <c r="E13" t="n">
-        <v>0.899</v>
+        <v>0.894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.885</v>
+        <v>0.879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.099</v>
+        <v>0.103</v>
       </c>
       <c r="H13" t="n">
-        <v>0.315</v>
+        <v>0.321</v>
       </c>
       <c r="I13" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="J13" t="n">
-        <v>0.978</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.222</v>
+        <v>0.397</v>
       </c>
       <c r="F14" t="n">
-        <v>1.389</v>
+        <v>1.301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.494</v>
+        <v>0.383</v>
       </c>
       <c r="H14" t="n">
-        <v>0.703</v>
+        <v>0.619</v>
       </c>
       <c r="I14" t="n">
-        <v>0.537</v>
+        <v>0.481</v>
       </c>
       <c r="J14" t="n">
-        <v>0.523</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.902</v>
+        <v>-0.397</v>
       </c>
       <c r="F15" t="n">
-        <v>6.706</v>
+        <v>5.191</v>
       </c>
       <c r="G15" t="n">
-        <v>1.208</v>
+        <v>0.887</v>
       </c>
       <c r="H15" t="n">
-        <v>1.099</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.863</v>
+        <v>0.72</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.08599999999999999</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.653</v>
+        <v>0.651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.604</v>
+        <v>0.602</v>
       </c>
       <c r="G16" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="H16" t="n">
-        <v>0.582</v>
+        <v>0.584</v>
       </c>
       <c r="I16" t="n">
-        <v>0.424</v>
+        <v>0.432</v>
       </c>
       <c r="J16" t="n">
-        <v>0.852</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="17">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.752</v>
+        <v>0.735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.79</v>
+        <v>0.784</v>
       </c>
       <c r="D18" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.897</v>
+        <v>0.908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.883</v>
+        <v>0.896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.097</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.311</v>
+        <v>0.295</v>
       </c>
       <c r="I18" t="n">
         <v>0.213</v>
       </c>
       <c r="J18" t="n">
-        <v>0.974</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.129</v>
+        <v>-0.178</v>
       </c>
       <c r="F19" t="n">
-        <v>1.564</v>
+        <v>1.589</v>
       </c>
       <c r="G19" t="n">
-        <v>0.197</v>
+        <v>0.205</v>
       </c>
       <c r="H19" t="n">
-        <v>0.444</v>
+        <v>0.453</v>
       </c>
       <c r="I19" t="n">
-        <v>0.382</v>
+        <v>0.365</v>
       </c>
       <c r="J19" t="n">
-        <v>0.464</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.594</v>
+        <v>-0.383</v>
       </c>
       <c r="F20" t="n">
-        <v>5.782</v>
+        <v>5.149</v>
       </c>
       <c r="G20" t="n">
-        <v>0.278</v>
+        <v>0.241</v>
       </c>
       <c r="H20" t="n">
-        <v>0.527</v>
+        <v>0.491</v>
       </c>
       <c r="I20" t="n">
-        <v>0.422</v>
+        <v>0.389</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.515</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.642</v>
+        <v>0.614</v>
       </c>
       <c r="F21" t="n">
-        <v>0.594</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.337</v>
+        <v>0.364</v>
       </c>
       <c r="H21" t="n">
-        <v>0.581</v>
+        <v>0.603</v>
       </c>
       <c r="I21" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="J21" t="n">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="22">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.73</v>
+        <v>0.726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="D23" t="n">
         <v>0.592</v>
       </c>
       <c r="E23" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="F23" t="n">
-        <v>0.896</v>
+        <v>0.892</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="H23" t="n">
-        <v>0.295</v>
+        <v>0.302</v>
       </c>
       <c r="I23" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="J23" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="F24" t="n">
-        <v>1.198</v>
+        <v>1.203</v>
       </c>
       <c r="G24" t="n">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.479</v>
+        <v>0.457</v>
       </c>
       <c r="J24" t="n">
-        <v>0.786</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.231</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>3.307</v>
+        <v>2.302</v>
       </c>
       <c r="G25" t="n">
-        <v>0.604</v>
+        <v>0.341</v>
       </c>
       <c r="H25" t="n">
-        <v>0.777</v>
+        <v>0.584</v>
       </c>
       <c r="I25" t="n">
-        <v>0.618</v>
+        <v>0.376</v>
       </c>
       <c r="J25" t="n">
-        <v>0.706</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.638</v>
+        <v>0.624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.592</v>
+        <v>0.576</v>
       </c>
       <c r="G26" t="n">
-        <v>0.342</v>
+        <v>0.355</v>
       </c>
       <c r="H26" t="n">
-        <v>0.585</v>
+        <v>0.596</v>
       </c>
       <c r="I26" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="J26" t="n">
-        <v>0.845</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="27">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="C28" t="n">
-        <v>0.789</v>
+        <v>0.782</v>
       </c>
       <c r="D28" t="n">
-        <v>0.604</v>
+        <v>0.595</v>
       </c>
       <c r="E28" t="n">
-        <v>0.903</v>
+        <v>0.912</v>
       </c>
       <c r="F28" t="n">
-        <v>0.891</v>
+        <v>0.901</v>
       </c>
       <c r="G28" t="n">
-        <v>0.092</v>
+        <v>0.083</v>
       </c>
       <c r="H28" t="n">
-        <v>0.303</v>
+        <v>0.288</v>
       </c>
       <c r="I28" t="n">
-        <v>0.215</v>
+        <v>0.211</v>
       </c>
       <c r="J28" t="n">
-        <v>0.973</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.646</v>
+        <v>0.491</v>
       </c>
       <c r="F29" t="n">
-        <v>1.177</v>
+        <v>1.254</v>
       </c>
       <c r="G29" t="n">
-        <v>0.314</v>
+        <v>0.451</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.672</v>
       </c>
       <c r="I29" t="n">
-        <v>0.467</v>
+        <v>0.61</v>
       </c>
       <c r="J29" t="n">
-        <v>0.89</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.308</v>
+        <v>0.495</v>
       </c>
       <c r="F30" t="n">
-        <v>3.076</v>
+        <v>2.515</v>
       </c>
       <c r="G30" t="n">
-        <v>0.613</v>
+        <v>0.447</v>
       </c>
       <c r="H30" t="n">
-        <v>0.783</v>
+        <v>0.669</v>
       </c>
       <c r="I30" t="n">
-        <v>0.666</v>
+        <v>0.595</v>
       </c>
       <c r="J30" t="n">
-        <v>0.769</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.644</v>
+        <v>0.646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="G31" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="H31" t="n">
-        <v>0.58</v>
+        <v>0.578</v>
       </c>
       <c r="I31" t="n">
-        <v>0.421</v>
+        <v>0.436</v>
       </c>
       <c r="J31" t="n">
-        <v>0.841</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.791</v>
+        <v>0.795</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634</v>
+        <v>0.624</v>
       </c>
       <c r="E33" t="n">
-        <v>0.906</v>
+        <v>0.904</v>
       </c>
       <c r="F33" t="n">
-        <v>0.895</v>
+        <v>0.893</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="I33" t="n">
-        <v>0.22</v>
+        <v>0.223</v>
       </c>
       <c r="J33" t="n">
-        <v>0.971</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.537</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1.232</v>
+        <v>1.219</v>
       </c>
       <c r="G34" t="n">
-        <v>0.58</v>
+        <v>0.548</v>
       </c>
       <c r="H34" t="n">
-        <v>0.762</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>0.619</v>
+        <v>0.585</v>
       </c>
       <c r="J34" t="n">
-        <v>0.792</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.414</v>
+        <v>0.253</v>
       </c>
       <c r="F35" t="n">
-        <v>2.758</v>
+        <v>3.241</v>
       </c>
       <c r="G35" t="n">
-        <v>0.735</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.857</v>
+        <v>0.967</v>
       </c>
       <c r="I35" t="n">
-        <v>0.68</v>
+        <v>0.746</v>
       </c>
       <c r="J35" t="n">
-        <v>0.783</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.62</v>
+        <v>0.654</v>
       </c>
       <c r="F36" t="n">
-        <v>0.576</v>
+        <v>0.614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.364</v>
+        <v>0.331</v>
       </c>
       <c r="H36" t="n">
-        <v>0.603</v>
+        <v>0.575</v>
       </c>
       <c r="I36" t="n">
-        <v>0.443</v>
+        <v>0.431</v>
       </c>
       <c r="J36" t="n">
-        <v>0.852</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="37">
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.717</v>
+        <v>0.723</v>
       </c>
       <c r="C38" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="D38" t="n">
-        <v>0.604</v>
+        <v>0.61</v>
       </c>
       <c r="E38" t="n">
-        <v>0.901</v>
+        <v>0.908</v>
       </c>
       <c r="F38" t="n">
-        <v>0.89</v>
+        <v>0.898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.093</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0.305</v>
+        <v>0.293</v>
       </c>
       <c r="I38" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="J38" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.252</v>
+        <v>0.41</v>
       </c>
       <c r="F39" t="n">
-        <v>1.374</v>
+        <v>1.295</v>
       </c>
       <c r="G39" t="n">
-        <v>0.256</v>
+        <v>0.202</v>
       </c>
       <c r="H39" t="n">
-        <v>0.506</v>
+        <v>0.449</v>
       </c>
       <c r="I39" t="n">
-        <v>0.375</v>
+        <v>0.334</v>
       </c>
       <c r="J39" t="n">
-        <v>0.651</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.549</v>
+        <v>0.299</v>
       </c>
       <c r="F40" t="n">
-        <v>2.353</v>
+        <v>3.103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.154</v>
+        <v>0.24</v>
       </c>
       <c r="H40" t="n">
-        <v>0.392</v>
+        <v>0.49</v>
       </c>
       <c r="I40" t="n">
-        <v>0.311</v>
+        <v>0.384</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.631</v>
+        <v>0.646</v>
       </c>
       <c r="F41" t="n">
-        <v>0.59</v>
+        <v>0.607</v>
       </c>
       <c r="G41" t="n">
-        <v>0.346</v>
+        <v>0.332</v>
       </c>
       <c r="H41" t="n">
-        <v>0.588</v>
+        <v>0.576</v>
       </c>
       <c r="I41" t="n">
-        <v>0.435</v>
+        <v>0.428</v>
       </c>
       <c r="J41" t="n">
-        <v>0.848</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="42">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.676</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.766</v>
+        <v>0.772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.614</v>
+        <v>0.622</v>
       </c>
       <c r="E43" t="n">
-        <v>0.903</v>
+        <v>0.918</v>
       </c>
       <c r="F43" t="n">
-        <v>0.893</v>
+        <v>0.909</v>
       </c>
       <c r="G43" t="n">
-        <v>0.092</v>
+        <v>0.078</v>
       </c>
       <c r="H43" t="n">
-        <v>0.303</v>
+        <v>0.279</v>
       </c>
       <c r="I43" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="J43" t="n">
-        <v>0.974</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.772</v>
+        <v>0.644</v>
       </c>
       <c r="F44" t="n">
-        <v>1.114</v>
+        <v>1.178</v>
       </c>
       <c r="G44" t="n">
-        <v>0.266</v>
+        <v>0.415</v>
       </c>
       <c r="H44" t="n">
-        <v>0.516</v>
+        <v>0.644</v>
       </c>
       <c r="I44" t="n">
-        <v>0.442</v>
+        <v>0.571</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.461</v>
+        <v>0.429</v>
       </c>
       <c r="F45" t="n">
-        <v>2.617</v>
+        <v>2.713</v>
       </c>
       <c r="G45" t="n">
-        <v>0.629</v>
+        <v>0.666</v>
       </c>
       <c r="H45" t="n">
-        <v>0.793</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.651</v>
+        <v>0.713</v>
       </c>
       <c r="J45" t="n">
-        <v>0.926</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.646</v>
+        <v>0.645</v>
       </c>
       <c r="F46" t="n">
-        <v>0.608</v>
+        <v>0.607</v>
       </c>
       <c r="G46" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="H46" t="n">
-        <v>0.582</v>
+        <v>0.583</v>
       </c>
       <c r="I46" t="n">
         <v>0.436</v>
       </c>
       <c r="J46" t="n">
-        <v>0.844</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="47">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="D48" t="n">
-        <v>0.618</v>
+        <v>0.621</v>
       </c>
       <c r="E48" t="n">
-        <v>0.911</v>
+        <v>0.905</v>
       </c>
       <c r="F48" t="n">
-        <v>0.902</v>
+        <v>0.895</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="H48" t="n">
-        <v>0.292</v>
+        <v>0.302</v>
       </c>
       <c r="I48" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="J48" t="n">
-        <v>0.977</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.449</v>
+        <v>0.538</v>
       </c>
       <c r="F49" t="n">
-        <v>1.276</v>
+        <v>1.231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.494</v>
+        <v>0.414</v>
       </c>
       <c r="H49" t="n">
-        <v>0.703</v>
+        <v>0.643</v>
       </c>
       <c r="I49" t="n">
-        <v>0.62</v>
+        <v>0.518</v>
       </c>
       <c r="J49" t="n">
-        <v>0.705</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.24</v>
+        <v>0.187</v>
       </c>
       <c r="F50" t="n">
-        <v>3.28</v>
+        <v>3.439</v>
       </c>
       <c r="G50" t="n">
-        <v>0.681</v>
+        <v>0.729</v>
       </c>
       <c r="H50" t="n">
-        <v>0.825</v>
+        <v>0.854</v>
       </c>
       <c r="I50" t="n">
-        <v>0.678</v>
+        <v>0.713</v>
       </c>
       <c r="J50" t="n">
-        <v>0.514</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.655</v>
+        <v>0.645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.619</v>
+        <v>0.608</v>
       </c>
       <c r="G51" t="n">
-        <v>0.331</v>
+        <v>0.34</v>
       </c>
       <c r="H51" t="n">
-        <v>0.575</v>
+        <v>0.583</v>
       </c>
       <c r="I51" t="n">
-        <v>0.427</v>
+        <v>0.435</v>
       </c>
       <c r="J51" t="n">
-        <v>0.847</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="52">
@@ -2221,31 +2221,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="C53" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="D53" t="n">
-        <v>0.613</v>
+        <v>0.609</v>
       </c>
       <c r="E53" t="n">
-        <v>0.911</v>
+        <v>0.91</v>
       </c>
       <c r="F53" t="n">
-        <v>0.902</v>
+        <v>0.901</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="I53" t="n">
-        <v>0.216</v>
+        <v>0.213</v>
       </c>
       <c r="J53" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.546</v>
+        <v>0.521</v>
       </c>
       <c r="F54" t="n">
-        <v>1.227</v>
+        <v>1.24</v>
       </c>
       <c r="G54" t="n">
-        <v>0.286</v>
+        <v>0.302</v>
       </c>
       <c r="H54" t="n">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="I54" t="n">
-        <v>0.467</v>
+        <v>0.48</v>
       </c>
       <c r="J54" t="n">
-        <v>0.754</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.736</v>
+        <v>0.663</v>
       </c>
       <c r="F55" t="n">
-        <v>1.792</v>
+        <v>2.011</v>
       </c>
       <c r="G55" t="n">
-        <v>0.167</v>
+        <v>0.213</v>
       </c>
       <c r="H55" t="n">
-        <v>0.409</v>
+        <v>0.462</v>
       </c>
       <c r="I55" t="n">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="J55" t="n">
-        <v>0.929</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.651</v>
+        <v>0.647</v>
       </c>
       <c r="F56" t="n">
-        <v>0.616</v>
+        <v>0.612</v>
       </c>
       <c r="G56" t="n">
-        <v>0.33</v>
+        <v>0.334</v>
       </c>
       <c r="H56" t="n">
-        <v>0.574</v>
+        <v>0.578</v>
       </c>
       <c r="I56" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="J56" t="n">
-        <v>0.836</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="57">
@@ -2391,25 +2391,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.651</v>
+        <v>0.662</v>
       </c>
       <c r="C58" t="n">
-        <v>0.775</v>
+        <v>0.781</v>
       </c>
       <c r="D58" t="n">
-        <v>0.597</v>
+        <v>0.601</v>
       </c>
       <c r="E58" t="n">
-        <v>0.911</v>
+        <v>0.91</v>
       </c>
       <c r="F58" t="n">
-        <v>0.902</v>
+        <v>0.901</v>
       </c>
       <c r="G58" t="n">
-        <v>0.082</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="I58" t="n">
         <v>0.214</v>
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.645</v>
+        <v>0.735</v>
       </c>
       <c r="F59" t="n">
-        <v>1.178</v>
+        <v>1.132</v>
       </c>
       <c r="G59" t="n">
-        <v>0.107</v>
+        <v>0.08</v>
       </c>
       <c r="H59" t="n">
-        <v>0.327</v>
+        <v>0.283</v>
       </c>
       <c r="I59" t="n">
-        <v>0.269</v>
+        <v>0.199</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2468,22 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.454</v>
+        <v>-0.226</v>
       </c>
       <c r="F60" t="n">
-        <v>2.638</v>
+        <v>4.678</v>
       </c>
       <c r="G60" t="n">
-        <v>0.165</v>
+        <v>0.37</v>
       </c>
       <c r="H60" t="n">
-        <v>0.406</v>
+        <v>0.608</v>
       </c>
       <c r="I60" t="n">
-        <v>0.274</v>
+        <v>0.47</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.646</v>
+        <v>0.65</v>
       </c>
       <c r="F61" t="n">
-        <v>0.612</v>
+        <v>0.616</v>
       </c>
       <c r="G61" t="n">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="H61" t="n">
-        <v>0.573</v>
+        <v>0.57</v>
       </c>
       <c r="I61" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="J61" t="n">
-        <v>0.853</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="62">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="C63" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="D63" t="n">
-        <v>0.598</v>
+        <v>0.601</v>
       </c>
       <c r="E63" t="n">
-        <v>0.904</v>
+        <v>0.908</v>
       </c>
       <c r="F63" t="n">
-        <v>0.895</v>
+        <v>0.899</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0.297</v>
+        <v>0.29</v>
       </c>
       <c r="I63" t="n">
-        <v>0.216</v>
+        <v>0.212</v>
       </c>
       <c r="J63" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.154</v>
+        <v>0.302</v>
       </c>
       <c r="F64" t="n">
-        <v>1.423</v>
+        <v>1.349</v>
       </c>
       <c r="G64" t="n">
-        <v>0.413</v>
+        <v>0.34</v>
       </c>
       <c r="H64" t="n">
-        <v>0.643</v>
+        <v>0.583</v>
       </c>
       <c r="I64" t="n">
-        <v>0.526</v>
+        <v>0.48</v>
       </c>
       <c r="J64" t="n">
-        <v>0.427</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.399</v>
+        <v>0.354</v>
       </c>
       <c r="F65" t="n">
-        <v>2.803</v>
+        <v>2.938</v>
       </c>
       <c r="G65" t="n">
-        <v>0.293</v>
+        <v>0.315</v>
       </c>
       <c r="H65" t="n">
-        <v>0.541</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
       <c r="J65" t="n">
-        <v>0.739</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.662</v>
+        <v>0.652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.631</v>
+        <v>0.62</v>
       </c>
       <c r="G66" t="n">
-        <v>0.309</v>
+        <v>0.318</v>
       </c>
       <c r="H66" t="n">
-        <v>0.556</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>0.418</v>
+        <v>0.421</v>
       </c>
       <c r="J66" t="n">
-        <v>0.848</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="67">
@@ -2734,28 +2734,28 @@
         <v>0.654</v>
       </c>
       <c r="C68" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="D68" t="n">
         <v>0.605</v>
       </c>
       <c r="E68" t="n">
-        <v>0.913</v>
+        <v>0.912</v>
       </c>
       <c r="F68" t="n">
-        <v>0.905</v>
+        <v>0.904</v>
       </c>
       <c r="G68" t="n">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="H68" t="n">
-        <v>0.279</v>
+        <v>0.281</v>
       </c>
       <c r="I68" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="J68" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.254</v>
+        <v>0.433</v>
       </c>
       <c r="F69" t="n">
-        <v>1.373</v>
+        <v>1.284</v>
       </c>
       <c r="G69" t="n">
-        <v>0.373</v>
+        <v>0.283</v>
       </c>
       <c r="H69" t="n">
-        <v>0.611</v>
+        <v>0.532</v>
       </c>
       <c r="I69" t="n">
-        <v>0.488</v>
+        <v>0.339</v>
       </c>
       <c r="J69" t="n">
-        <v>0.553</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2808,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.395</v>
+        <v>0.363</v>
       </c>
       <c r="F70" t="n">
-        <v>2.815</v>
+        <v>2.911</v>
       </c>
       <c r="G70" t="n">
-        <v>0.302</v>
+        <v>0.319</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.421</v>
+        <v>0.427</v>
       </c>
       <c r="J70" t="n">
-        <v>0.841</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.642</v>
+        <v>0.631</v>
       </c>
       <c r="F71" t="n">
-        <v>0.61</v>
+        <v>0.598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="I71" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="J71" t="n">
-        <v>0.843</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="72">
@@ -2901,31 +2901,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.617</v>
+        <v>0.614</v>
       </c>
       <c r="C73" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="D73" t="n">
-        <v>0.581</v>
+        <v>0.583</v>
       </c>
       <c r="E73" t="n">
-        <v>0.91</v>
+        <v>0.918</v>
       </c>
       <c r="F73" t="n">
-        <v>0.902</v>
+        <v>0.911</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08</v>
+        <v>0.073</v>
       </c>
       <c r="H73" t="n">
-        <v>0.283</v>
+        <v>0.27</v>
       </c>
       <c r="I73" t="n">
-        <v>0.21</v>
+        <v>0.203</v>
       </c>
       <c r="J73" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.467</v>
+        <v>0.422</v>
       </c>
       <c r="F74" t="n">
-        <v>1.266</v>
+        <v>1.289</v>
       </c>
       <c r="G74" t="n">
-        <v>0.21</v>
+        <v>0.227</v>
       </c>
       <c r="H74" t="n">
-        <v>0.458</v>
+        <v>0.476</v>
       </c>
       <c r="I74" t="n">
-        <v>0.362</v>
+        <v>0.39</v>
       </c>
       <c r="J74" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.633</v>
+        <v>0.602</v>
       </c>
       <c r="F75" t="n">
-        <v>2.101</v>
+        <v>2.194</v>
       </c>
       <c r="G75" t="n">
-        <v>0.144</v>
+        <v>0.157</v>
       </c>
       <c r="H75" t="n">
-        <v>0.379</v>
+        <v>0.396</v>
       </c>
       <c r="I75" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="J75" t="n">
-        <v>0.83</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +3012,22 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.655</v>
+        <v>0.648</v>
       </c>
       <c r="F76" t="n">
-        <v>0.625</v>
+        <v>0.618</v>
       </c>
       <c r="G76" t="n">
-        <v>0.307</v>
+        <v>0.312</v>
       </c>
       <c r="H76" t="n">
-        <v>0.554</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
       <c r="J76" t="n">
-        <v>0.844</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="77">
@@ -3071,31 +3071,31 @@
         </is>
       </c>
       <c r="B78" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="D78" t="n">
         <v>0.571</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.569</v>
-      </c>
       <c r="E78" t="n">
-        <v>0.908</v>
+        <v>0.909</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="H78" t="n">
-        <v>0.285</v>
+        <v>0.283</v>
       </c>
       <c r="I78" t="n">
-        <v>0.209</v>
+        <v>0.207</v>
       </c>
       <c r="J78" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.788</v>
+        <v>0.343</v>
       </c>
       <c r="F79" t="n">
-        <v>1.107</v>
+        <v>1.025</v>
       </c>
       <c r="G79" t="n">
-        <v>0.076</v>
+        <v>0.018</v>
       </c>
       <c r="H79" t="n">
-        <v>0.276</v>
+        <v>0.134</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2</v>
+        <v>0.128</v>
       </c>
       <c r="J79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.487</v>
+        <v>-0.329</v>
       </c>
       <c r="F80" t="n">
-        <v>1.317</v>
+        <v>1.121</v>
       </c>
       <c r="G80" t="n">
-        <v>0.095</v>
+        <v>0.036</v>
       </c>
       <c r="H80" t="n">
-        <v>0.308</v>
+        <v>0.19</v>
       </c>
       <c r="I80" t="n">
-        <v>0.272</v>
+        <v>0.149</v>
       </c>
       <c r="J80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.651</v>
+        <v>0.627</v>
       </c>
       <c r="F81" t="n">
-        <v>0.621</v>
+        <v>0.595</v>
       </c>
       <c r="G81" t="n">
-        <v>0.309</v>
+        <v>0.33</v>
       </c>
       <c r="H81" t="n">
-        <v>0.556</v>
+        <v>0.574</v>
       </c>
       <c r="I81" t="n">
-        <v>0.414</v>
+        <v>0.426</v>
       </c>
       <c r="J81" t="n">
-        <v>0.843</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="82">
@@ -3241,31 +3241,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.659</v>
+        <v>0.661</v>
       </c>
       <c r="C83" t="n">
         <v>0.772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.599</v>
+        <v>0.6</v>
       </c>
       <c r="E83" t="n">
-        <v>0.904</v>
+        <v>0.907</v>
       </c>
       <c r="F83" t="n">
-        <v>0.896</v>
+        <v>0.899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="H83" t="n">
-        <v>0.293</v>
+        <v>0.288</v>
       </c>
       <c r="I83" t="n">
-        <v>0.215</v>
+        <v>0.213</v>
       </c>
       <c r="J83" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +3284,22 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-141.376</v>
+        <v>-1.275</v>
       </c>
       <c r="F84" t="n">
-        <v>6.476</v>
+        <v>1.088</v>
       </c>
       <c r="G84" t="n">
-        <v>60.702</v>
+        <v>0.97</v>
       </c>
       <c r="H84" t="n">
-        <v>7.791</v>
+        <v>0.985</v>
       </c>
       <c r="I84" t="n">
-        <v>6.141</v>
+        <v>0.963</v>
       </c>
       <c r="J84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.787</v>
+        <v>-4.99</v>
       </c>
       <c r="F85" t="n">
-        <v>1.799</v>
+        <v>1.545</v>
       </c>
       <c r="G85" t="n">
-        <v>3.746</v>
+        <v>2.554</v>
       </c>
       <c r="H85" t="n">
-        <v>1.935</v>
+        <v>1.598</v>
       </c>
       <c r="I85" t="n">
-        <v>1.879</v>
+        <v>1.572</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3352,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.656</v>
+        <v>0.652</v>
       </c>
       <c r="F86" t="n">
-        <v>0.627</v>
+        <v>0.622</v>
       </c>
       <c r="G86" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I86" t="n">
-        <v>0.419</v>
+        <v>0.416</v>
       </c>
       <c r="J86" t="n">
-        <v>0.847</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="87">
@@ -3411,31 +3411,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.646</v>
+        <v>0.664</v>
       </c>
       <c r="C88" t="n">
-        <v>0.765</v>
+        <v>0.771</v>
       </c>
       <c r="D88" t="n">
         <v>0.598</v>
       </c>
       <c r="E88" t="n">
-        <v>0.901</v>
+        <v>0.907</v>
       </c>
       <c r="F88" t="n">
-        <v>0.893</v>
+        <v>0.899</v>
       </c>
       <c r="G88" t="n">
-        <v>0.089</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0.298</v>
+        <v>0.29</v>
       </c>
       <c r="I88" t="n">
-        <v>0.218</v>
+        <v>0.213</v>
       </c>
       <c r="J88" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="89">
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.137</v>
+        <v>-3.506</v>
       </c>
       <c r="F89" t="n">
-        <v>1.044</v>
+        <v>1.173</v>
       </c>
       <c r="G89" t="n">
-        <v>0.708</v>
+        <v>2.808</v>
       </c>
       <c r="H89" t="n">
-        <v>0.841</v>
+        <v>1.676</v>
       </c>
       <c r="I89" t="n">
-        <v>0.734</v>
+        <v>1.621</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3488,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-30.89</v>
+        <v>-78.55500000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>3.899</v>
+        <v>8.231999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>19.868</v>
+        <v>49.566</v>
       </c>
       <c r="H90" t="n">
-        <v>4.457</v>
+        <v>7.04</v>
       </c>
       <c r="I90" t="n">
-        <v>4.235</v>
+        <v>5.492</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3522,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.638</v>
+        <v>0.648</v>
       </c>
       <c r="F91" t="n">
-        <v>0.607</v>
+        <v>0.618</v>
       </c>
       <c r="G91" t="n">
-        <v>0.325</v>
+        <v>0.316</v>
       </c>
       <c r="H91" t="n">
-        <v>0.57</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="J91" t="n">
-        <v>0.843</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="92">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.625</v>
+        <v>0.611</v>
       </c>
       <c r="C93" t="n">
-        <v>0.747</v>
+        <v>0.742</v>
       </c>
       <c r="D93" t="n">
-        <v>0.588</v>
+        <v>0.584</v>
       </c>
       <c r="E93" t="n">
-        <v>0.914</v>
+        <v>0.907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.907</v>
+        <v>0.899</v>
       </c>
       <c r="G93" t="n">
-        <v>0.077</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0.277</v>
+        <v>0.29</v>
       </c>
       <c r="I93" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="J93" t="n">
         <v>0.972</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.599</v>
+        <v>-4.029</v>
       </c>
       <c r="F94" t="n">
-        <v>1.015</v>
+        <v>1.193</v>
       </c>
       <c r="G94" t="n">
-        <v>0.031</v>
+        <v>0.382</v>
       </c>
       <c r="H94" t="n">
-        <v>0.176</v>
+        <v>0.618</v>
       </c>
       <c r="I94" t="n">
-        <v>0.146</v>
+        <v>0.587</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -3658,22 +3658,22 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-23.418</v>
+        <v>-1.992</v>
       </c>
       <c r="F95" t="n">
-        <v>3.22</v>
+        <v>1.272</v>
       </c>
       <c r="G95" t="n">
-        <v>1.857</v>
+        <v>0.228</v>
       </c>
       <c r="H95" t="n">
-        <v>1.363</v>
+        <v>0.477</v>
       </c>
       <c r="I95" t="n">
-        <v>1.128</v>
+        <v>0.477</v>
       </c>
       <c r="J95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.659</v>
+        <v>0.642</v>
       </c>
       <c r="F96" t="n">
-        <v>0.63</v>
+        <v>0.612</v>
       </c>
       <c r="G96" t="n">
-        <v>0.306</v>
+        <v>0.321</v>
       </c>
       <c r="H96" t="n">
-        <v>0.553</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I96" t="n">
-        <v>0.412</v>
+        <v>0.425</v>
       </c>
       <c r="J96" t="n">
-        <v>0.858</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="97">
@@ -3751,31 +3751,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.615</v>
+        <v>0.614</v>
       </c>
       <c r="C98" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="D98" t="n">
-        <v>0.579</v>
+        <v>0.584</v>
       </c>
       <c r="E98" t="n">
-        <v>0.907</v>
+        <v>0.91</v>
       </c>
       <c r="F98" t="n">
-        <v>0.899</v>
+        <v>0.902</v>
       </c>
       <c r="G98" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
       <c r="H98" t="n">
-        <v>0.288</v>
+        <v>0.283</v>
       </c>
       <c r="I98" t="n">
-        <v>0.212</v>
+        <v>0.214</v>
       </c>
       <c r="J98" t="n">
-        <v>0.97</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="99">
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.406</v>
+        <v>-3.254</v>
       </c>
       <c r="F99" t="n">
-        <v>1.054</v>
+        <v>1.164</v>
       </c>
       <c r="G99" t="n">
-        <v>0.028</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0.167</v>
+        <v>0.292</v>
       </c>
       <c r="I99" t="n">
-        <v>0.148</v>
+        <v>0.277</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-20.182</v>
+        <v>-9.901</v>
       </c>
       <c r="F100" t="n">
-        <v>2.926</v>
+        <v>1.991</v>
       </c>
       <c r="G100" t="n">
-        <v>0.424</v>
+        <v>0.218</v>
       </c>
       <c r="H100" t="n">
-        <v>0.651</v>
+        <v>0.467</v>
       </c>
       <c r="I100" t="n">
-        <v>0.651</v>
+        <v>0.458</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.644</v>
+        <v>0.636</v>
       </c>
       <c r="F101" t="n">
-        <v>0.614</v>
+        <v>0.605</v>
       </c>
       <c r="G101" t="n">
-        <v>0.318</v>
+        <v>0.325</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="I101" t="n">
-        <v>0.417</v>
+        <v>0.424</v>
       </c>
       <c r="J101" t="n">
-        <v>0.844</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="102">
@@ -3921,31 +3921,31 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.613</v>
+        <v>0.608</v>
       </c>
       <c r="C103" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="D103" t="n">
-        <v>0.578</v>
+        <v>0.58</v>
       </c>
       <c r="E103" t="n">
-        <v>0.903</v>
+        <v>0.911</v>
       </c>
       <c r="F103" t="n">
-        <v>0.895</v>
+        <v>0.904</v>
       </c>
       <c r="G103" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="H103" t="n">
-        <v>0.293</v>
+        <v>0.281</v>
       </c>
       <c r="I103" t="n">
-        <v>0.216</v>
+        <v>0.213</v>
       </c>
       <c r="J103" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="104">
@@ -3964,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.261</v>
+        <v>0.056</v>
       </c>
       <c r="F104" t="n">
-        <v>1.048</v>
+        <v>1.036</v>
       </c>
       <c r="G104" t="n">
-        <v>0.064</v>
+        <v>0.048</v>
       </c>
       <c r="H104" t="n">
-        <v>0.253</v>
+        <v>0.219</v>
       </c>
       <c r="I104" t="n">
-        <v>0.184</v>
+        <v>0.217</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -3998,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-5.753</v>
+        <v>-5.242</v>
       </c>
       <c r="F105" t="n">
-        <v>1.614</v>
+        <v>1.567</v>
       </c>
       <c r="G105" t="n">
-        <v>0.341</v>
+        <v>0.315</v>
       </c>
       <c r="H105" t="n">
-        <v>0.584</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>0.457</v>
+        <v>0.47</v>
       </c>
       <c r="J105" t="n">
         <v>-1</v>
@@ -4032,22 +4032,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.651</v>
+        <v>0.639</v>
       </c>
       <c r="F106" t="n">
-        <v>0.622</v>
+        <v>0.609</v>
       </c>
       <c r="G106" t="n">
-        <v>0.31</v>
+        <v>0.321</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I106" t="n">
-        <v>0.413</v>
+        <v>0.421</v>
       </c>
       <c r="J106" t="n">
-        <v>0.846</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="107">
@@ -4091,31 +4091,31 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.613</v>
+        <v>0.609</v>
       </c>
       <c r="C108" t="n">
-        <v>0.743</v>
+        <v>0.739</v>
       </c>
       <c r="D108" t="n">
         <v>0.581</v>
       </c>
       <c r="E108" t="n">
-        <v>0.91</v>
+        <v>0.902</v>
       </c>
       <c r="F108" t="n">
-        <v>0.903</v>
+        <v>0.894</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.283</v>
+        <v>0.295</v>
       </c>
       <c r="I108" t="n">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="J108" t="n">
-        <v>0.972</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="109">
@@ -4134,22 +4134,22 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-9.215</v>
+        <v>-3.141</v>
       </c>
       <c r="F109" t="n">
-        <v>1.393</v>
+        <v>1.159</v>
       </c>
       <c r="G109" t="n">
-        <v>0.319</v>
+        <v>0.129</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="I109" t="n">
-        <v>0.435</v>
+        <v>0.355</v>
       </c>
       <c r="J109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.73</v>
+        <v>-7.401</v>
       </c>
       <c r="F110" t="n">
-        <v>1.157</v>
+        <v>1.764</v>
       </c>
       <c r="G110" t="n">
-        <v>0.054</v>
+        <v>0.262</v>
       </c>
       <c r="H110" t="n">
-        <v>0.232</v>
+        <v>0.512</v>
       </c>
       <c r="I110" t="n">
-        <v>0.218</v>
+        <v>0.506</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4202,22 +4202,22 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.632</v>
+        <v>0.646</v>
       </c>
       <c r="F111" t="n">
-        <v>0.602</v>
+        <v>0.617</v>
       </c>
       <c r="G111" t="n">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="H111" t="n">
-        <v>0.572</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I111" t="n">
-        <v>0.424</v>
+        <v>0.413</v>
       </c>
       <c r="J111" t="n">
-        <v>0.847</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="112">
@@ -4261,31 +4261,31 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.627</v>
+        <v>0.623</v>
       </c>
       <c r="C113" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="D113" t="n">
-        <v>0.586</v>
+        <v>0.588</v>
       </c>
       <c r="E113" t="n">
-        <v>0.908</v>
+        <v>0.913</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9</v>
+        <v>0.906</v>
       </c>
       <c r="G113" t="n">
-        <v>0.083</v>
+        <v>0.078</v>
       </c>
       <c r="H113" t="n">
-        <v>0.288</v>
+        <v>0.279</v>
       </c>
       <c r="I113" t="n">
-        <v>0.216</v>
+        <v>0.212</v>
       </c>
       <c r="J113" t="n">
-        <v>0.971</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="114">
@@ -4304,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-24.877</v>
+        <v>0.325</v>
       </c>
       <c r="F114" t="n">
-        <v>1.995</v>
+        <v>1.026</v>
       </c>
       <c r="G114" t="n">
-        <v>0.699</v>
+        <v>0.018</v>
       </c>
       <c r="H114" t="n">
-        <v>0.836</v>
+        <v>0.134</v>
       </c>
       <c r="I114" t="n">
-        <v>0.765</v>
+        <v>0.134</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-5.248</v>
+        <v>-54.553</v>
       </c>
       <c r="F115" t="n">
-        <v>1.568</v>
+        <v>6.05</v>
       </c>
       <c r="G115" t="n">
-        <v>0.169</v>
+        <v>1.501</v>
       </c>
       <c r="H115" t="n">
-        <v>0.411</v>
+        <v>1.225</v>
       </c>
       <c r="I115" t="n">
-        <v>0.364</v>
+        <v>1.216</v>
       </c>
       <c r="J115" t="n">
         <v>-1</v>
@@ -4372,22 +4372,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.654</v>
+        <v>0.637</v>
       </c>
       <c r="F116" t="n">
-        <v>0.626</v>
+        <v>0.607</v>
       </c>
       <c r="G116" t="n">
-        <v>0.312</v>
+        <v>0.326</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="I116" t="n">
         <v>0.42</v>
       </c>
       <c r="J116" t="n">
-        <v>0.855</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="117">
@@ -4431,31 +4431,31 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.633</v>
+        <v>0.638</v>
       </c>
       <c r="C118" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="D118" t="n">
-        <v>0.594</v>
+        <v>0.598</v>
       </c>
       <c r="E118" t="n">
-        <v>0.902</v>
+        <v>0.913</v>
       </c>
       <c r="F118" t="n">
-        <v>0.894</v>
+        <v>0.906</v>
       </c>
       <c r="G118" t="n">
-        <v>0.089</v>
+        <v>0.079</v>
       </c>
       <c r="H118" t="n">
-        <v>0.298</v>
+        <v>0.281</v>
       </c>
       <c r="I118" t="n">
-        <v>0.219</v>
+        <v>0.21</v>
       </c>
       <c r="J118" t="n">
-        <v>0.969</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="119">
@@ -4474,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-10.517</v>
+        <v>-2.499</v>
       </c>
       <c r="F119" t="n">
-        <v>1.443</v>
+        <v>1.135</v>
       </c>
       <c r="G119" t="n">
-        <v>0.391</v>
+        <v>0.119</v>
       </c>
       <c r="H119" t="n">
-        <v>0.625</v>
+        <v>0.345</v>
       </c>
       <c r="I119" t="n">
-        <v>0.543</v>
+        <v>0.345</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-31.898</v>
+        <v>-16.217</v>
       </c>
       <c r="F120" t="n">
-        <v>3.991</v>
+        <v>2.565</v>
       </c>
       <c r="G120" t="n">
-        <v>1.118</v>
+        <v>0.585</v>
       </c>
       <c r="H120" t="n">
-        <v>1.057</v>
+        <v>0.765</v>
       </c>
       <c r="I120" t="n">
-        <v>0.825</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="J120" t="n">
         <v>-1</v>
@@ -4542,22 +4542,22 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.643</v>
+        <v>0.664</v>
       </c>
       <c r="F121" t="n">
-        <v>0.614</v>
+        <v>0.637</v>
       </c>
       <c r="G121" t="n">
-        <v>0.327</v>
+        <v>0.308</v>
       </c>
       <c r="H121" t="n">
-        <v>0.572</v>
+        <v>0.555</v>
       </c>
       <c r="I121" t="n">
-        <v>0.425</v>
+        <v>0.415</v>
       </c>
       <c r="J121" t="n">
-        <v>0.856</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="122">
@@ -4601,31 +4601,31 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.633</v>
+        <v>0.629</v>
       </c>
       <c r="C123" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="D123" t="n">
         <v>0.59</v>
       </c>
       <c r="E123" t="n">
-        <v>0.911</v>
+        <v>0.914</v>
       </c>
       <c r="F123" t="n">
-        <v>0.904</v>
+        <v>0.907</v>
       </c>
       <c r="G123" t="n">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="H123" t="n">
-        <v>0.285</v>
+        <v>0.281</v>
       </c>
       <c r="I123" t="n">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="J123" t="n">
-        <v>0.971</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="124">
@@ -4644,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-2.488</v>
+        <v>0.744</v>
       </c>
       <c r="F124" t="n">
-        <v>1.134</v>
+        <v>1.01</v>
       </c>
       <c r="G124" t="n">
-        <v>0.551</v>
+        <v>0.04</v>
       </c>
       <c r="H124" t="n">
-        <v>0.742</v>
+        <v>0.2</v>
       </c>
       <c r="I124" t="n">
-        <v>0.571</v>
+        <v>0.166</v>
       </c>
       <c r="J124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4678,22 +4678,22 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.317</v>
+        <v>0.543</v>
       </c>
       <c r="F125" t="n">
-        <v>1.12</v>
+        <v>1.042</v>
       </c>
       <c r="G125" t="n">
-        <v>0.208</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0.456</v>
+        <v>0.268</v>
       </c>
       <c r="I125" t="n">
-        <v>0.42</v>
+        <v>0.265</v>
       </c>
       <c r="J125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4712,22 +4712,22 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.637</v>
+        <v>0.641</v>
       </c>
       <c r="F126" t="n">
-        <v>0.607</v>
+        <v>0.612</v>
       </c>
       <c r="G126" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="H126" t="n">
-        <v>0.575</v>
+        <v>0.573</v>
       </c>
       <c r="I126" t="n">
-        <v>0.424</v>
+        <v>0.427</v>
       </c>
       <c r="J126" t="n">
-        <v>0.858</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="127">
@@ -4771,31 +4771,31 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.647</v>
+        <v>0.629</v>
       </c>
       <c r="C128" t="n">
-        <v>0.763</v>
+        <v>0.753</v>
       </c>
       <c r="D128" t="n">
-        <v>0.598</v>
+        <v>0.59</v>
       </c>
       <c r="E128" t="n">
-        <v>0.913</v>
+        <v>0.909</v>
       </c>
       <c r="F128" t="n">
-        <v>0.906</v>
+        <v>0.902</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0.283</v>
+        <v>0.29</v>
       </c>
       <c r="I128" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="J128" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="129">
@@ -4814,22 +4814,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.247</v>
+        <v>-0.761</v>
       </c>
       <c r="F129" t="n">
-        <v>1.029</v>
+        <v>1.068</v>
       </c>
       <c r="G129" t="n">
-        <v>0.493</v>
+        <v>1.154</v>
       </c>
       <c r="H129" t="n">
-        <v>0.702</v>
+        <v>1.074</v>
       </c>
       <c r="I129" t="n">
-        <v>0.67</v>
+        <v>0.855</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.345</v>
+        <v>0.913</v>
       </c>
       <c r="F130" t="n">
-        <v>1.06</v>
+        <v>1.008</v>
       </c>
       <c r="G130" t="n">
-        <v>0.429</v>
+        <v>0.057</v>
       </c>
       <c r="H130" t="n">
-        <v>0.655</v>
+        <v>0.239</v>
       </c>
       <c r="I130" t="n">
-        <v>0.484</v>
+        <v>0.236</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -4882,22 +4882,22 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.645</v>
+        <v>0.657</v>
       </c>
       <c r="F131" t="n">
-        <v>0.616</v>
+        <v>0.629</v>
       </c>
       <c r="G131" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="H131" t="n">
-        <v>0.57</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I131" t="n">
-        <v>0.417</v>
+        <v>0.414</v>
       </c>
       <c r="J131" t="n">
-        <v>0.842</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="132">
@@ -4941,19 +4941,19 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.647</v>
+        <v>0.63</v>
       </c>
       <c r="C133" t="n">
-        <v>0.767</v>
+        <v>0.754</v>
       </c>
       <c r="D133" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="E133" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="F133" t="n">
-        <v>0.902</v>
+        <v>0.903</v>
       </c>
       <c r="G133" t="n">
         <v>0.083</v>
@@ -4962,10 +4962,10 @@
         <v>0.288</v>
       </c>
       <c r="I133" t="n">
-        <v>0.217</v>
+        <v>0.215</v>
       </c>
       <c r="J133" t="n">
-        <v>0.971</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="134">
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.127</v>
+        <v>0.455</v>
       </c>
       <c r="F134" t="n">
-        <v>1.034</v>
+        <v>1.021</v>
       </c>
       <c r="G134" t="n">
-        <v>0.062</v>
+        <v>0.039</v>
       </c>
       <c r="H134" t="n">
-        <v>0.249</v>
+        <v>0.197</v>
       </c>
       <c r="I134" t="n">
-        <v>0.202</v>
+        <v>0.176</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5018,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.596</v>
+        <v>-4.77</v>
       </c>
       <c r="F135" t="n">
-        <v>1.037</v>
+        <v>1.525</v>
       </c>
       <c r="G135" t="n">
-        <v>0.029</v>
+        <v>0.41</v>
       </c>
       <c r="H135" t="n">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="I135" t="n">
-        <v>0.159</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -5052,22 +5052,22 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.662</v>
+        <v>0.652</v>
       </c>
       <c r="F136" t="n">
-        <v>0.635</v>
+        <v>0.624</v>
       </c>
       <c r="G136" t="n">
-        <v>0.309</v>
+        <v>0.318</v>
       </c>
       <c r="H136" t="n">
-        <v>0.556</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.412</v>
+        <v>0.415</v>
       </c>
       <c r="J136" t="n">
-        <v>0.849</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="137">
@@ -5111,28 +5111,28 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.654</v>
+        <v>0.677</v>
       </c>
       <c r="C138" t="n">
-        <v>0.767</v>
+        <v>0.784</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598</v>
+        <v>0.614</v>
       </c>
       <c r="E138" t="n">
-        <v>0.913</v>
+        <v>0.916</v>
       </c>
       <c r="F138" t="n">
-        <v>0.906</v>
+        <v>0.909</v>
       </c>
       <c r="G138" t="n">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
       <c r="H138" t="n">
-        <v>0.285</v>
+        <v>0.279</v>
       </c>
       <c r="I138" t="n">
-        <v>0.215</v>
+        <v>0.209</v>
       </c>
       <c r="J138" t="n">
         <v>0.975</v>
@@ -5154,19 +5154,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-13.4</v>
+        <v>-39.957</v>
       </c>
       <c r="F139" t="n">
-        <v>1.554</v>
+        <v>2.575</v>
       </c>
       <c r="G139" t="n">
-        <v>0.156</v>
+        <v>0.444</v>
       </c>
       <c r="H139" t="n">
-        <v>0.395</v>
+        <v>0.666</v>
       </c>
       <c r="I139" t="n">
-        <v>0.387</v>
+        <v>0.635</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -5188,19 +5188,19 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-246.79</v>
+        <v>-198.824</v>
       </c>
       <c r="F140" t="n">
-        <v>23.526</v>
+        <v>19.166</v>
       </c>
       <c r="G140" t="n">
-        <v>2.688</v>
+        <v>2.167</v>
       </c>
       <c r="H140" t="n">
-        <v>1.64</v>
+        <v>1.472</v>
       </c>
       <c r="I140" t="n">
-        <v>1.232</v>
+        <v>1.129</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -5222,22 +5222,22 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.657</v>
+        <v>0.661</v>
       </c>
       <c r="F141" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="G141" t="n">
-        <v>0.319</v>
+        <v>0.315</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I141" t="n">
-        <v>0.421</v>
+        <v>0.413</v>
       </c>
       <c r="J141" t="n">
-        <v>0.847</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="142">
@@ -5281,31 +5281,31 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.681</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.783</v>
+        <v>0.789</v>
       </c>
       <c r="D143" t="n">
-        <v>0.611</v>
+        <v>0.614</v>
       </c>
       <c r="E143" t="n">
-        <v>0.906</v>
+        <v>0.912</v>
       </c>
       <c r="F143" t="n">
-        <v>0.899</v>
+        <v>0.905</v>
       </c>
       <c r="G143" t="n">
-        <v>0.09</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I143" t="n">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="J143" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="144">
@@ -5324,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.261</v>
+        <v>-0.079</v>
       </c>
       <c r="F144" t="n">
-        <v>1.028</v>
+        <v>1.042</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9340000000000001</v>
+        <v>1.364</v>
       </c>
       <c r="H144" t="n">
-        <v>0.966</v>
+        <v>1.168</v>
       </c>
       <c r="I144" t="n">
-        <v>0.909</v>
+        <v>1.142</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -5358,19 +5358,19 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.171</v>
+        <v>0.973</v>
       </c>
       <c r="F145" t="n">
-        <v>1.106</v>
+        <v>1.002</v>
       </c>
       <c r="G145" t="n">
-        <v>1.481</v>
+        <v>0.034</v>
       </c>
       <c r="H145" t="n">
-        <v>1.217</v>
+        <v>0.184</v>
       </c>
       <c r="I145" t="n">
-        <v>1.07</v>
+        <v>0.135</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5392,22 +5392,22 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.656</v>
+        <v>0.67</v>
       </c>
       <c r="F146" t="n">
-        <v>0.629</v>
+        <v>0.644</v>
       </c>
       <c r="G146" t="n">
-        <v>0.329</v>
+        <v>0.316</v>
       </c>
       <c r="H146" t="n">
-        <v>0.574</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I146" t="n">
         <v>0.422</v>
       </c>
       <c r="J146" t="n">
-        <v>0.856</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="147">
@@ -5451,31 +5451,31 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.757</v>
+        <v>0.768</v>
       </c>
       <c r="C148" t="n">
-        <v>0.823</v>
+        <v>0.829</v>
       </c>
       <c r="D148" t="n">
-        <v>0.632</v>
+        <v>0.633</v>
       </c>
       <c r="E148" t="n">
-        <v>0.918</v>
+        <v>0.914</v>
       </c>
       <c r="F148" t="n">
-        <v>0.912</v>
+        <v>0.907</v>
       </c>
       <c r="G148" t="n">
-        <v>0.082</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0.286</v>
+        <v>0.293</v>
       </c>
       <c r="I148" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="J148" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="149">
@@ -5494,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-13.959</v>
+        <v>-12.789</v>
       </c>
       <c r="F149" t="n">
-        <v>1.575</v>
+        <v>1.53</v>
       </c>
       <c r="G149" t="n">
-        <v>2.307</v>
+        <v>2.126</v>
       </c>
       <c r="H149" t="n">
-        <v>1.519</v>
+        <v>1.458</v>
       </c>
       <c r="I149" t="n">
-        <v>1.467</v>
+        <v>1.428</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5528,19 +5528,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-10.862</v>
+        <v>-10.351</v>
       </c>
       <c r="F150" t="n">
-        <v>2.078</v>
+        <v>2.032</v>
       </c>
       <c r="G150" t="n">
-        <v>1.829</v>
+        <v>1.75</v>
       </c>
       <c r="H150" t="n">
-        <v>1.352</v>
+        <v>1.323</v>
       </c>
       <c r="I150" t="n">
-        <v>0.987</v>
+        <v>1.131</v>
       </c>
       <c r="J150" t="n">
         <v>-1</v>
@@ -5562,22 +5562,22 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.655</v>
+        <v>0.677</v>
       </c>
       <c r="F151" t="n">
-        <v>0.628</v>
+        <v>0.652</v>
       </c>
       <c r="G151" t="n">
-        <v>0.345</v>
+        <v>0.324</v>
       </c>
       <c r="H151" t="n">
-        <v>0.587</v>
+        <v>0.569</v>
       </c>
       <c r="I151" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="J151" t="n">
-        <v>0.86</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="152">
@@ -5621,31 +5621,31 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="C153" t="n">
         <v>0.826</v>
       </c>
       <c r="D153" t="n">
-        <v>0.635</v>
+        <v>0.639</v>
       </c>
       <c r="E153" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="F153" t="n">
-        <v>0.903</v>
+        <v>0.901</v>
       </c>
       <c r="G153" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="I153" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="J153" t="n">
-        <v>0.973</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="154">
@@ -5664,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-626.428</v>
+        <v>-820.7</v>
       </c>
       <c r="F154" t="n">
-        <v>25.132</v>
+        <v>32.604</v>
       </c>
       <c r="G154" t="n">
-        <v>0.734</v>
+        <v>0.961</v>
       </c>
       <c r="H154" t="n">
-        <v>0.857</v>
+        <v>0.98</v>
       </c>
       <c r="I154" t="n">
-        <v>0.703</v>
+        <v>0.977</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5698,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>-892.654</v>
+        <v>-408.661</v>
       </c>
       <c r="F155" t="n">
-        <v>82.241</v>
+        <v>38.242</v>
       </c>
       <c r="G155" t="n">
-        <v>1.046</v>
+        <v>0.479</v>
       </c>
       <c r="H155" t="n">
-        <v>1.023</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I155" t="n">
-        <v>1.013</v>
+        <v>0.619</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5732,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.652</v>
+        <v>0.664</v>
       </c>
       <c r="F156" t="n">
-        <v>0.625</v>
+        <v>0.638</v>
       </c>
       <c r="G156" t="n">
-        <v>0.348</v>
+        <v>0.336</v>
       </c>
       <c r="H156" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I156" t="n">
-        <v>0.441</v>
+        <v>0.432</v>
       </c>
       <c r="J156" t="n">
-        <v>0.852</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="157">
@@ -5791,31 +5791,31 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.773</v>
+        <v>0.791</v>
       </c>
       <c r="C158" t="n">
-        <v>0.831</v>
+        <v>0.839</v>
       </c>
       <c r="D158" t="n">
-        <v>0.639</v>
+        <v>0.644</v>
       </c>
       <c r="E158" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="F158" t="n">
-        <v>0.898</v>
+        <v>0.902</v>
       </c>
       <c r="G158" t="n">
-        <v>0.095</v>
+        <v>0.091</v>
       </c>
       <c r="H158" t="n">
-        <v>0.308</v>
+        <v>0.302</v>
       </c>
       <c r="I158" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="J158" t="n">
-        <v>0.969</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="159">
@@ -5834,19 +5834,19 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.034</v>
+        <v>-5.96</v>
       </c>
       <c r="F159" t="n">
-        <v>1.04</v>
+        <v>1.268</v>
       </c>
       <c r="G159" t="n">
-        <v>0.079</v>
+        <v>0.53</v>
       </c>
       <c r="H159" t="n">
-        <v>0.281</v>
+        <v>0.728</v>
       </c>
       <c r="I159" t="n">
-        <v>0.278</v>
+        <v>0.702</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -5868,22 +5868,22 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.132</v>
+        <v>-22.599</v>
       </c>
       <c r="F160" t="n">
-        <v>1.285</v>
+        <v>3.145</v>
       </c>
       <c r="G160" t="n">
-        <v>0.238</v>
+        <v>1.796</v>
       </c>
       <c r="H160" t="n">
-        <v>0.488</v>
+        <v>1.34</v>
       </c>
       <c r="I160" t="n">
-        <v>0.483</v>
+        <v>1.333</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -5902,22 +5902,22 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.649</v>
+        <v>0.66</v>
       </c>
       <c r="F161" t="n">
-        <v>0.622</v>
+        <v>0.633</v>
       </c>
       <c r="G161" t="n">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="H161" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="I161" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="J161" t="n">
-        <v>0.859</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="162">
@@ -5961,31 +5961,31 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.761</v>
+        <v>0.774</v>
       </c>
       <c r="C163" t="n">
-        <v>0.825</v>
+        <v>0.831</v>
       </c>
       <c r="D163" t="n">
-        <v>0.638</v>
+        <v>0.639</v>
       </c>
       <c r="E163" t="n">
-        <v>0.907</v>
+        <v>0.905</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="G163" t="n">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
       <c r="H163" t="n">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="I163" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="J163" t="n">
-        <v>0.971</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="164">
@@ -6004,19 +6004,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.742</v>
+        <v>-4.508</v>
       </c>
       <c r="F164" t="n">
-        <v>1.105</v>
+        <v>1.212</v>
       </c>
       <c r="G164" t="n">
-        <v>0.244</v>
+        <v>0.49</v>
       </c>
       <c r="H164" t="n">
-        <v>0.494</v>
+        <v>0.7</v>
       </c>
       <c r="I164" t="n">
-        <v>0.466</v>
+        <v>0.7</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6038,19 +6038,19 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-42.607</v>
+        <v>-3.001</v>
       </c>
       <c r="F165" t="n">
-        <v>4.964</v>
+        <v>1.364</v>
       </c>
       <c r="G165" t="n">
-        <v>3.878</v>
+        <v>0.356</v>
       </c>
       <c r="H165" t="n">
-        <v>1.969</v>
+        <v>0.597</v>
       </c>
       <c r="I165" t="n">
-        <v>1.787</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J165" t="n">
         <v>-1</v>
@@ -6072,22 +6072,22 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.633</v>
+        <v>0.644</v>
       </c>
       <c r="F166" t="n">
-        <v>0.605</v>
+        <v>0.616</v>
       </c>
       <c r="G166" t="n">
-        <v>0.366</v>
+        <v>0.355</v>
       </c>
       <c r="H166" t="n">
-        <v>0.605</v>
+        <v>0.596</v>
       </c>
       <c r="I166" t="n">
-        <v>0.448</v>
+        <v>0.443</v>
       </c>
       <c r="J166" t="n">
-        <v>0.854</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="167">
@@ -6131,31 +6131,31 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.7031333333333334</v>
+        <v>0.7004666666666668</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7761333333333335</v>
+        <v>0.7748000000000002</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6048666666666666</v>
+        <v>0.6035333333333334</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9038666666666667</v>
+        <v>0.9067999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8925333333333331</v>
+        <v>0.8958666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08846666666666668</v>
+        <v>0.08586666666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2971333333333333</v>
+        <v>0.2926</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2147333333333334</v>
+        <v>0.2130666666666667</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9746</v>
+        <v>0.9752666666666667</v>
       </c>
     </row>
     <row r="169">
@@ -6174,22 +6174,22 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3616333333333334</v>
+        <v>0.3947</v>
       </c>
       <c r="F169" t="n">
-        <v>2.1892</v>
+        <v>2.157066666666667</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7095</v>
+        <v>0.5625333333333332</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6971333333333334</v>
+        <v>0.6606666666666666</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5648333333333333</v>
+        <v>0.5189666666666667</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6646666666666667</v>
+        <v>0.6998666666666667</v>
       </c>
     </row>
     <row r="170">
@@ -6208,22 +6208,22 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2731333333333333</v>
+        <v>0.2946</v>
       </c>
       <c r="F170" t="n">
-        <v>3.112</v>
+        <v>3.0744</v>
       </c>
       <c r="G170" t="n">
-        <v>0.8575999999999998</v>
+        <v>0.6883333333333332</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7563333333333334</v>
+        <v>0.7211333333333333</v>
       </c>
       <c r="I170" t="n">
-        <v>0.5983333333333333</v>
+        <v>0.5656</v>
       </c>
       <c r="J170" t="n">
-        <v>0.6216</v>
+        <v>0.6488666666666667</v>
       </c>
     </row>
     <row r="171">
@@ -6242,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6407999999999999</v>
+        <v>0.6388666666666667</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5991333333333333</v>
+        <v>0.597</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3300666666666668</v>
+        <v>0.3317333333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5742</v>
+        <v>0.5756666666666667</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4262</v>
+        <v>0.4271333333333333</v>
       </c>
       <c r="J171" t="n">
-        <v>0.8451333333333334</v>
+        <v>0.8446666666666666</v>
       </c>
     </row>
     <row r="172">
@@ -6301,31 +6301,31 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6620555555555555</v>
+        <v>0.6645000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7713333333333332</v>
+        <v>0.7723333333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6007777777777777</v>
+        <v>0.6024444444444444</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9082777777777777</v>
+        <v>0.9097777777777778</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9009444444444443</v>
+        <v>0.9024444444444444</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08494444444444443</v>
+        <v>0.08366666666666665</v>
       </c>
       <c r="H173" t="n">
-        <v>0.2912777777777777</v>
+        <v>0.289111111111111</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2157777777777778</v>
+        <v>0.2146666666666667</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9715555555555555</v>
+        <v>0.9717777777777779</v>
       </c>
     </row>
     <row r="174">
@@ -6344,22 +6344,22 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-60.23275000000001</v>
+        <v>-47.93033333333333</v>
       </c>
       <c r="F174" t="n">
-        <v>5.308722222222221</v>
+        <v>4.110055555555555</v>
       </c>
       <c r="G174" t="n">
-        <v>3.002111111111111</v>
+        <v>2.058638888888889</v>
       </c>
       <c r="H174" t="n">
-        <v>1.047305555555556</v>
+        <v>0.8756388888888889</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9059166666666667</v>
+        <v>0.7892777777777776</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="175">
@@ -6378,22 +6378,22 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>-73.49916666666667</v>
+        <v>-45.83094444444445</v>
       </c>
       <c r="F175" t="n">
-        <v>7.772666666666666</v>
+        <v>5.257388888888888</v>
       </c>
       <c r="G175" t="n">
-        <v>2.194333333333333</v>
+        <v>3.465888888888889</v>
       </c>
       <c r="H175" t="n">
-        <v>1.109333333333333</v>
+        <v>1.088333333333333</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9813333333333334</v>
+        <v>0.9447777777777776</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176">
@@ -6412,22 +6412,22 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6485555555555556</v>
+        <v>0.6509444444444444</v>
       </c>
       <c r="F176" t="n">
-        <v>0.62</v>
+        <v>0.6224444444444445</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3258333333333334</v>
+        <v>0.3233333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5707222222222222</v>
+        <v>0.5684999999999999</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4236666666666667</v>
+        <v>0.422611111111111</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8508888888888887</v>
+        <v>0.8499444444444444</v>
       </c>
     </row>
     <row r="177">
@@ -6471,31 +6471,31 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.6962870370370372</v>
+        <v>0.6944722222222223</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7753333333333335</v>
+        <v>0.7743888888888889</v>
       </c>
       <c r="D178" t="n">
-        <v>0.604185185185185</v>
+        <v>0.6033518518518519</v>
       </c>
       <c r="E178" t="n">
-        <v>0.904601851851852</v>
+        <v>0.9072962962962962</v>
       </c>
       <c r="F178" t="n">
-        <v>0.893935185185185</v>
+        <v>0.896962962962963</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08787962962962964</v>
+        <v>0.08549999999999998</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2961574074074074</v>
+        <v>0.2920185185185185</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2149074074074074</v>
+        <v>0.2133333333333334</v>
       </c>
       <c r="J178" t="n">
-        <v>0.9740925925925926</v>
+        <v>0.9746851851851851</v>
       </c>
     </row>
     <row r="179">
@@ -6514,22 +6514,22 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>-9.737430555555557</v>
+        <v>-7.659472222222221</v>
       </c>
       <c r="F179" t="n">
-        <v>2.70912037037037</v>
+        <v>2.482564814814815</v>
       </c>
       <c r="G179" t="n">
-        <v>1.091601851851852</v>
+        <v>0.8118842592592591</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7554953703703705</v>
+        <v>0.6964953703703703</v>
       </c>
       <c r="I179" t="n">
-        <v>0.6216805555555556</v>
+        <v>0.5640185185185185</v>
       </c>
       <c r="J179" t="n">
-        <v>0.6094444444444446</v>
+        <v>0.675814814814815</v>
       </c>
     </row>
     <row r="180">
@@ -6548,22 +6548,22 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-12.02225</v>
+        <v>-7.392990740740742</v>
       </c>
       <c r="F180" t="n">
-        <v>3.888777777777777</v>
+        <v>3.438231481481482</v>
       </c>
       <c r="G180" t="n">
-        <v>1.080388888888889</v>
+        <v>1.151259259259259</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8151666666666667</v>
+        <v>0.7823333333333333</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6621666666666667</v>
+        <v>0.6287962962962962</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5365185185185185</v>
+        <v>0.5962777777777778</v>
       </c>
     </row>
     <row r="181">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6420925925925925</v>
+        <v>0.6408796296296296</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6026111111111111</v>
+        <v>0.6012407407407407</v>
       </c>
       <c r="G181" t="n">
-        <v>0.3293611111111112</v>
+        <v>0.3303333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5736203703703705</v>
+        <v>0.5744722222222222</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4257777777777778</v>
+        <v>0.4263796296296296</v>
       </c>
       <c r="J181" t="n">
-        <v>0.8460925925925927</v>
+        <v>0.8455462962962962</v>
       </c>
     </row>
   </sheetData>

--- a/Brent3COVIDMetrics/rollingTrainMetrics.xlsx
+++ b/Brent3COVIDMetrics/rollingTrainMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.551</v>
+        <v>0.54</v>
       </c>
       <c r="C3" t="n">
-        <v>0.678</v>
+        <v>0.674</v>
       </c>
       <c r="D3" t="n">
         <v>0.548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.894</v>
+        <v>0.892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.877</v>
+        <v>0.875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.263</v>
+        <v>0.265</v>
       </c>
       <c r="I3" t="n">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
       <c r="J3" t="n">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +564,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.883</v>
+        <v>0.892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.865</v>
+        <v>0.875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.076</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.276</v>
+        <v>0.265</v>
       </c>
       <c r="I4" t="n">
-        <v>0.209</v>
+        <v>0.205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.958</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.846</v>
+        <v>0.916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.835</v>
+        <v>0.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.105</v>
+        <v>0.057</v>
       </c>
       <c r="H5" t="n">
-        <v>0.324</v>
+        <v>0.239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.251</v>
+        <v>0.184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.573</v>
+        <v>0.585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.506</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
-        <v>0.277</v>
+        <v>0.269</v>
       </c>
       <c r="H6" t="n">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4</v>
+        <v>0.394</v>
       </c>
       <c r="J6" t="n">
-        <v>0.83</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.851</v>
+        <v>0.863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.797</v>
+        <v>0.806</v>
       </c>
       <c r="D8" t="n">
-        <v>0.63</v>
+        <v>0.637</v>
       </c>
       <c r="E8" t="n">
-        <v>0.897</v>
+        <v>0.906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.882</v>
+        <v>0.892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.102</v>
+        <v>0.093</v>
       </c>
       <c r="H8" t="n">
-        <v>0.319</v>
+        <v>0.305</v>
       </c>
       <c r="I8" t="n">
-        <v>0.225</v>
+        <v>0.219</v>
       </c>
       <c r="J8" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.666</v>
+        <v>0.766</v>
       </c>
       <c r="F9" t="n">
-        <v>1.167</v>
+        <v>1.117</v>
       </c>
       <c r="G9" t="n">
-        <v>2.307</v>
+        <v>1.612</v>
       </c>
       <c r="H9" t="n">
-        <v>1.519</v>
+        <v>1.27</v>
       </c>
       <c r="I9" t="n">
-        <v>1.067</v>
+        <v>1.006</v>
       </c>
       <c r="J9" t="n">
-        <v>0.823</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.368</v>
+        <v>0.191</v>
       </c>
       <c r="F10" t="n">
-        <v>2.896</v>
+        <v>3.427</v>
       </c>
       <c r="G10" t="n">
-        <v>4.359</v>
+        <v>5.586</v>
       </c>
       <c r="H10" t="n">
-        <v>2.088</v>
+        <v>2.363</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.787</v>
       </c>
       <c r="J10" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.606</v>
+        <v>0.618</v>
       </c>
       <c r="G11" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="H11" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="I11" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="J11" t="n">
-        <v>0.854</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="12">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.789</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.795</v>
-      </c>
       <c r="D13" t="n">
-        <v>0.607</v>
+        <v>0.598</v>
       </c>
       <c r="E13" t="n">
         <v>0.894</v>
@@ -876,16 +876,16 @@
         <v>0.879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="H13" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="I13" t="n">
-        <v>0.218</v>
+        <v>0.225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.397</v>
+        <v>-0.123</v>
       </c>
       <c r="F14" t="n">
-        <v>1.301</v>
+        <v>1.562</v>
       </c>
       <c r="G14" t="n">
-        <v>0.383</v>
+        <v>0.713</v>
       </c>
       <c r="H14" t="n">
-        <v>0.619</v>
+        <v>0.844</v>
       </c>
       <c r="I14" t="n">
-        <v>0.481</v>
+        <v>0.701</v>
       </c>
       <c r="J14" t="n">
-        <v>0.672</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.397</v>
+        <v>-0.207</v>
       </c>
       <c r="F15" t="n">
-        <v>5.191</v>
+        <v>4.621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.887</v>
+        <v>0.767</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="I15" t="n">
-        <v>0.72</v>
+        <v>0.666</v>
       </c>
       <c r="J15" t="n">
-        <v>0.187</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.651</v>
+        <v>0.649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.602</v>
+        <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="H16" t="n">
-        <v>0.584</v>
+        <v>0.586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.432</v>
+        <v>0.422</v>
       </c>
       <c r="J16" t="n">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="17">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.735</v>
+        <v>0.745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="D18" t="n">
         <v>0.605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.908</v>
+        <v>0.892</v>
       </c>
       <c r="F18" t="n">
-        <v>0.896</v>
+        <v>0.878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.102</v>
       </c>
       <c r="H18" t="n">
-        <v>0.295</v>
+        <v>0.319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.213</v>
+        <v>0.226</v>
       </c>
       <c r="J18" t="n">
-        <v>0.979</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.178</v>
+        <v>0.34</v>
       </c>
       <c r="F19" t="n">
-        <v>1.589</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.205</v>
+        <v>0.115</v>
       </c>
       <c r="H19" t="n">
-        <v>0.453</v>
+        <v>0.339</v>
       </c>
       <c r="I19" t="n">
-        <v>0.365</v>
+        <v>0.287</v>
       </c>
       <c r="J19" t="n">
-        <v>0.417</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.383</v>
+        <v>0.254</v>
       </c>
       <c r="F20" t="n">
-        <v>5.149</v>
+        <v>3.238</v>
       </c>
       <c r="G20" t="n">
-        <v>0.241</v>
+        <v>0.13</v>
       </c>
       <c r="H20" t="n">
-        <v>0.491</v>
+        <v>0.361</v>
       </c>
       <c r="I20" t="n">
-        <v>0.389</v>
+        <v>0.302</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.614</v>
+        <v>0.656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="G21" t="n">
-        <v>0.364</v>
+        <v>0.324</v>
       </c>
       <c r="H21" t="n">
-        <v>0.603</v>
+        <v>0.569</v>
       </c>
       <c r="I21" t="n">
-        <v>0.428</v>
+        <v>0.424</v>
       </c>
       <c r="J21" t="n">
         <v>0.848</v>
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="D23" t="n">
-        <v>0.592</v>
+        <v>0.593</v>
       </c>
       <c r="E23" t="n">
-        <v>0.904</v>
+        <v>0.895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.892</v>
+        <v>0.882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.091</v>
+        <v>0.099</v>
       </c>
       <c r="H23" t="n">
-        <v>0.302</v>
+        <v>0.315</v>
       </c>
       <c r="I23" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="J23" t="n">
-        <v>0.976</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.595</v>
+        <v>0.605</v>
       </c>
       <c r="F24" t="n">
-        <v>1.203</v>
+        <v>1.198</v>
       </c>
       <c r="G24" t="n">
-        <v>0.318</v>
+        <v>0.31</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.457</v>
+        <v>0.442</v>
       </c>
       <c r="J24" t="n">
-        <v>0.82</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="F25" t="n">
-        <v>2.302</v>
+        <v>1.885</v>
       </c>
       <c r="G25" t="n">
-        <v>0.341</v>
+        <v>0.232</v>
       </c>
       <c r="H25" t="n">
-        <v>0.584</v>
+        <v>0.482</v>
       </c>
       <c r="I25" t="n">
-        <v>0.376</v>
+        <v>0.424</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.624</v>
+        <v>0.652</v>
       </c>
       <c r="F26" t="n">
-        <v>0.576</v>
+        <v>0.608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.355</v>
+        <v>0.329</v>
       </c>
       <c r="H26" t="n">
-        <v>0.596</v>
+        <v>0.574</v>
       </c>
       <c r="I26" t="n">
-        <v>0.434</v>
+        <v>0.418</v>
       </c>
       <c r="J26" t="n">
-        <v>0.843</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="27">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="D28" t="n">
-        <v>0.595</v>
+        <v>0.596</v>
       </c>
       <c r="E28" t="n">
-        <v>0.912</v>
+        <v>0.903</v>
       </c>
       <c r="F28" t="n">
-        <v>0.901</v>
+        <v>0.891</v>
       </c>
       <c r="G28" t="n">
-        <v>0.083</v>
+        <v>0.091</v>
       </c>
       <c r="H28" t="n">
-        <v>0.288</v>
+        <v>0.302</v>
       </c>
       <c r="I28" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="J28" t="n">
-        <v>0.983</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.491</v>
+        <v>0.875</v>
       </c>
       <c r="F29" t="n">
-        <v>1.254</v>
+        <v>1.062</v>
       </c>
       <c r="G29" t="n">
-        <v>0.451</v>
+        <v>0.111</v>
       </c>
       <c r="H29" t="n">
-        <v>0.672</v>
+        <v>0.333</v>
       </c>
       <c r="I29" t="n">
-        <v>0.61</v>
+        <v>0.302</v>
       </c>
       <c r="J29" t="n">
-        <v>0.727</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.495</v>
+        <v>0.284</v>
       </c>
       <c r="F30" t="n">
-        <v>2.515</v>
+        <v>3.148</v>
       </c>
       <c r="G30" t="n">
-        <v>0.447</v>
+        <v>0.634</v>
       </c>
       <c r="H30" t="n">
-        <v>0.669</v>
+        <v>0.796</v>
       </c>
       <c r="I30" t="n">
-        <v>0.595</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.76</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.646</v>
+        <v>0.654</v>
       </c>
       <c r="F31" t="n">
-        <v>0.603</v>
+        <v>0.612</v>
       </c>
       <c r="G31" t="n">
-        <v>0.334</v>
+        <v>0.327</v>
       </c>
       <c r="H31" t="n">
-        <v>0.578</v>
+        <v>0.572</v>
       </c>
       <c r="I31" t="n">
-        <v>0.436</v>
+        <v>0.419</v>
       </c>
       <c r="J31" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="32">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.795</v>
+        <v>0.798</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.624</v>
+        <v>0.629</v>
       </c>
       <c r="E33" t="n">
-        <v>0.904</v>
+        <v>0.91</v>
       </c>
       <c r="F33" t="n">
-        <v>0.893</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
-        <v>0.092</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0.303</v>
+        <v>0.293</v>
       </c>
       <c r="I33" t="n">
-        <v>0.223</v>
+        <v>0.218</v>
       </c>
       <c r="J33" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.617</v>
       </c>
       <c r="F34" t="n">
-        <v>1.219</v>
+        <v>1.192</v>
       </c>
       <c r="G34" t="n">
-        <v>0.548</v>
+        <v>0.48</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>0.585</v>
+        <v>0.541</v>
       </c>
       <c r="J34" t="n">
-        <v>0.82</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.253</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>3.241</v>
+        <v>2.329</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="H35" t="n">
-        <v>0.967</v>
+        <v>0.745</v>
       </c>
       <c r="I35" t="n">
-        <v>0.746</v>
+        <v>0.602</v>
       </c>
       <c r="J35" t="n">
-        <v>0.649</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="36">
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.654</v>
+        <v>0.648</v>
       </c>
       <c r="F36" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="G36" t="n">
-        <v>0.331</v>
+        <v>0.337</v>
       </c>
       <c r="H36" t="n">
-        <v>0.575</v>
+        <v>0.581</v>
       </c>
       <c r="I36" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="J36" t="n">
         <v>0.847</v>
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.723</v>
+        <v>0.74</v>
       </c>
       <c r="C38" t="n">
-        <v>0.769</v>
+        <v>0.783</v>
       </c>
       <c r="D38" t="n">
-        <v>0.61</v>
+        <v>0.619</v>
       </c>
       <c r="E38" t="n">
-        <v>0.908</v>
+        <v>0.905</v>
       </c>
       <c r="F38" t="n">
-        <v>0.898</v>
+        <v>0.894</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="H38" t="n">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
       <c r="I38" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="J38" t="n">
-        <v>0.976</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.41</v>
+        <v>0.553</v>
       </c>
       <c r="F39" t="n">
-        <v>1.295</v>
+        <v>1.224</v>
       </c>
       <c r="G39" t="n">
-        <v>0.202</v>
+        <v>0.153</v>
       </c>
       <c r="H39" t="n">
-        <v>0.449</v>
+        <v>0.391</v>
       </c>
       <c r="I39" t="n">
-        <v>0.334</v>
+        <v>0.28</v>
       </c>
       <c r="J39" t="n">
-        <v>0.701</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.299</v>
+        <v>0.268</v>
       </c>
       <c r="F40" t="n">
-        <v>3.103</v>
+        <v>3.196</v>
       </c>
       <c r="G40" t="n">
-        <v>0.24</v>
+        <v>0.251</v>
       </c>
       <c r="H40" t="n">
-        <v>0.49</v>
+        <v>0.501</v>
       </c>
       <c r="I40" t="n">
-        <v>0.384</v>
+        <v>0.423</v>
       </c>
       <c r="J40" t="n">
-        <v>0.745</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.646</v>
+        <v>0.643</v>
       </c>
       <c r="F41" t="n">
-        <v>0.607</v>
+        <v>0.603</v>
       </c>
       <c r="G41" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="H41" t="n">
-        <v>0.576</v>
+        <v>0.579</v>
       </c>
       <c r="I41" t="n">
-        <v>0.428</v>
+        <v>0.431</v>
       </c>
       <c r="J41" t="n">
-        <v>0.849</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="42">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="C43" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.622</v>
+        <v>0.615</v>
       </c>
       <c r="E43" t="n">
-        <v>0.918</v>
+        <v>0.904</v>
       </c>
       <c r="F43" t="n">
-        <v>0.909</v>
+        <v>0.894</v>
       </c>
       <c r="G43" t="n">
-        <v>0.078</v>
+        <v>0.092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.279</v>
+        <v>0.303</v>
       </c>
       <c r="I43" t="n">
-        <v>0.208</v>
+        <v>0.219</v>
       </c>
       <c r="J43" t="n">
-        <v>0.977</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.644</v>
+        <v>0.531</v>
       </c>
       <c r="F44" t="n">
-        <v>1.178</v>
+        <v>1.234</v>
       </c>
       <c r="G44" t="n">
-        <v>0.415</v>
+        <v>0.547</v>
       </c>
       <c r="H44" t="n">
-        <v>0.644</v>
+        <v>0.74</v>
       </c>
       <c r="I44" t="n">
-        <v>0.571</v>
+        <v>0.631</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.429</v>
+        <v>0.539</v>
       </c>
       <c r="F45" t="n">
-        <v>2.713</v>
+        <v>2.383</v>
       </c>
       <c r="G45" t="n">
-        <v>0.666</v>
+        <v>0.538</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="I45" t="n">
-        <v>0.713</v>
+        <v>0.574</v>
       </c>
       <c r="J45" t="n">
-        <v>0.822</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.645</v>
+        <v>0.646</v>
       </c>
       <c r="F46" t="n">
-        <v>0.607</v>
+        <v>0.608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="H46" t="n">
-        <v>0.583</v>
+        <v>0.582</v>
       </c>
       <c r="I46" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="J46" t="n">
-        <v>0.85</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="47">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="C48" t="n">
-        <v>0.79</v>
+        <v>0.785</v>
       </c>
       <c r="D48" t="n">
-        <v>0.621</v>
+        <v>0.615</v>
       </c>
       <c r="E48" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="F48" t="n">
-        <v>0.895</v>
+        <v>0.897</v>
       </c>
       <c r="G48" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="H48" t="n">
-        <v>0.302</v>
+        <v>0.298</v>
       </c>
       <c r="I48" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J48" t="n">
-        <v>0.971</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.538</v>
+        <v>0.634</v>
       </c>
       <c r="F49" t="n">
-        <v>1.231</v>
+        <v>1.183</v>
       </c>
       <c r="G49" t="n">
-        <v>0.414</v>
+        <v>0.328</v>
       </c>
       <c r="H49" t="n">
-        <v>0.643</v>
+        <v>0.573</v>
       </c>
       <c r="I49" t="n">
-        <v>0.518</v>
+        <v>0.464</v>
       </c>
       <c r="J49" t="n">
-        <v>0.839</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.187</v>
+        <v>0.248</v>
       </c>
       <c r="F50" t="n">
-        <v>3.439</v>
+        <v>3.256</v>
       </c>
       <c r="G50" t="n">
-        <v>0.729</v>
+        <v>0.674</v>
       </c>
       <c r="H50" t="n">
-        <v>0.854</v>
+        <v>0.821</v>
       </c>
       <c r="I50" t="n">
-        <v>0.713</v>
+        <v>0.694</v>
       </c>
       <c r="J50" t="n">
-        <v>0.476</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.608</v>
+        <v>0.613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="H51" t="n">
-        <v>0.583</v>
+        <v>0.58</v>
       </c>
       <c r="I51" t="n">
-        <v>0.435</v>
+        <v>0.431</v>
       </c>
       <c r="J51" t="n">
-        <v>0.848</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="52">
@@ -2221,31 +2221,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="C53" t="n">
-        <v>0.788</v>
+        <v>0.784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.609</v>
+        <v>0.612</v>
       </c>
       <c r="E53" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="F53" t="n">
-        <v>0.901</v>
+        <v>0.905</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="H53" t="n">
-        <v>0.293</v>
+        <v>0.286</v>
       </c>
       <c r="I53" t="n">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="J53" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.521</v>
+        <v>0.728</v>
       </c>
       <c r="F54" t="n">
-        <v>1.24</v>
+        <v>1.136</v>
       </c>
       <c r="G54" t="n">
-        <v>0.302</v>
+        <v>0.171</v>
       </c>
       <c r="H54" t="n">
-        <v>0.55</v>
+        <v>0.414</v>
       </c>
       <c r="I54" t="n">
-        <v>0.48</v>
+        <v>0.307</v>
       </c>
       <c r="J54" t="n">
-        <v>0.734</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.663</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>2.011</v>
+        <v>2.305</v>
       </c>
       <c r="G55" t="n">
-        <v>0.213</v>
+        <v>0.274</v>
       </c>
       <c r="H55" t="n">
-        <v>0.462</v>
+        <v>0.523</v>
       </c>
       <c r="I55" t="n">
-        <v>0.391</v>
+        <v>0.413</v>
       </c>
       <c r="J55" t="n">
-        <v>0.974</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.647</v>
+        <v>0.658</v>
       </c>
       <c r="F56" t="n">
-        <v>0.612</v>
+        <v>0.624</v>
       </c>
       <c r="G56" t="n">
-        <v>0.334</v>
+        <v>0.324</v>
       </c>
       <c r="H56" t="n">
-        <v>0.578</v>
+        <v>0.569</v>
       </c>
       <c r="I56" t="n">
-        <v>0.432</v>
+        <v>0.423</v>
       </c>
       <c r="J56" t="n">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="57">
@@ -2391,28 +2391,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.662</v>
+        <v>0.653</v>
       </c>
       <c r="C58" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="D58" t="n">
-        <v>0.601</v>
+        <v>0.598</v>
       </c>
       <c r="E58" t="n">
-        <v>0.91</v>
+        <v>0.911</v>
       </c>
       <c r="F58" t="n">
-        <v>0.901</v>
+        <v>0.902</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="H58" t="n">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
       <c r="I58" t="n">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
       <c r="J58" t="n">
         <v>0.974</v>
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.735</v>
+        <v>0.631</v>
       </c>
       <c r="F59" t="n">
-        <v>1.132</v>
+        <v>1.184</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08</v>
+        <v>0.112</v>
       </c>
       <c r="H59" t="n">
-        <v>0.283</v>
+        <v>0.335</v>
       </c>
       <c r="I59" t="n">
-        <v>0.199</v>
+        <v>0.249</v>
       </c>
       <c r="J59" t="n">
-        <v>0.859</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2468,22 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.226</v>
+        <v>-0.121</v>
       </c>
       <c r="F60" t="n">
-        <v>4.678</v>
+        <v>4.363</v>
       </c>
       <c r="G60" t="n">
-        <v>0.37</v>
+        <v>0.339</v>
       </c>
       <c r="H60" t="n">
-        <v>0.608</v>
+        <v>0.582</v>
       </c>
       <c r="I60" t="n">
-        <v>0.47</v>
+        <v>0.402</v>
       </c>
       <c r="J60" t="n">
-        <v>0.398</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.65</v>
+        <v>0.634</v>
       </c>
       <c r="F61" t="n">
-        <v>0.616</v>
+        <v>0.599</v>
       </c>
       <c r="G61" t="n">
-        <v>0.325</v>
+        <v>0.339</v>
       </c>
       <c r="H61" t="n">
-        <v>0.57</v>
+        <v>0.582</v>
       </c>
       <c r="I61" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="J61" t="n">
-        <v>0.836</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="62">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.645</v>
+        <v>0.632</v>
       </c>
       <c r="C63" t="n">
-        <v>0.771</v>
+        <v>0.762</v>
       </c>
       <c r="D63" t="n">
-        <v>0.601</v>
+        <v>0.598</v>
       </c>
       <c r="E63" t="n">
-        <v>0.908</v>
+        <v>0.911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.899</v>
+        <v>0.903</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="H63" t="n">
-        <v>0.29</v>
+        <v>0.286</v>
       </c>
       <c r="I63" t="n">
         <v>0.212</v>
       </c>
       <c r="J63" t="n">
-        <v>0.973</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="64">
@@ -2604,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.302</v>
+        <v>0.262</v>
       </c>
       <c r="F64" t="n">
-        <v>1.349</v>
+        <v>1.369</v>
       </c>
       <c r="G64" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="H64" t="n">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>0.48</v>
+        <v>0.494</v>
       </c>
       <c r="J64" t="n">
         <v>0.5590000000000001</v>
@@ -2638,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.354</v>
+        <v>0.497</v>
       </c>
       <c r="F65" t="n">
-        <v>2.938</v>
+        <v>2.509</v>
       </c>
       <c r="G65" t="n">
-        <v>0.315</v>
+        <v>0.245</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="I65" t="n">
-        <v>0.429</v>
+        <v>0.388</v>
       </c>
       <c r="J65" t="n">
-        <v>0.629</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.652</v>
+        <v>0.672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.62</v>
+        <v>0.642</v>
       </c>
       <c r="G66" t="n">
-        <v>0.318</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="I66" t="n">
-        <v>0.421</v>
+        <v>0.414</v>
       </c>
       <c r="J66" t="n">
-        <v>0.839</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="67">
@@ -2731,31 +2731,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.654</v>
+        <v>0.658</v>
       </c>
       <c r="C68" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="D68" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.912</v>
+        <v>0.915</v>
       </c>
       <c r="F68" t="n">
-        <v>0.904</v>
+        <v>0.907</v>
       </c>
       <c r="G68" t="n">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="H68" t="n">
-        <v>0.281</v>
+        <v>0.277</v>
       </c>
       <c r="I68" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="J68" t="n">
-        <v>0.975</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.433</v>
+        <v>0.633</v>
       </c>
       <c r="F69" t="n">
-        <v>1.284</v>
+        <v>1.184</v>
       </c>
       <c r="G69" t="n">
-        <v>0.283</v>
+        <v>0.183</v>
       </c>
       <c r="H69" t="n">
-        <v>0.532</v>
+        <v>0.428</v>
       </c>
       <c r="I69" t="n">
-        <v>0.339</v>
+        <v>0.252</v>
       </c>
       <c r="J69" t="n">
-        <v>0.736</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2808,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.363</v>
+        <v>0.044</v>
       </c>
       <c r="F70" t="n">
-        <v>2.911</v>
+        <v>3.868</v>
       </c>
       <c r="G70" t="n">
-        <v>0.319</v>
+        <v>0.478</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.427</v>
+        <v>0.461</v>
       </c>
       <c r="J70" t="n">
-        <v>0.663</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="71">
@@ -2842,53 +2842,53 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.631</v>
+        <v>0.66</v>
       </c>
       <c r="F71" t="n">
-        <v>0.598</v>
+        <v>0.63</v>
       </c>
       <c r="G71" t="n">
-        <v>0.333</v>
+        <v>0.307</v>
       </c>
       <c r="H71" t="n">
-        <v>0.577</v>
+        <v>0.554</v>
       </c>
       <c r="I71" t="n">
-        <v>0.428</v>
+        <v>0.414</v>
       </c>
       <c r="J71" t="n">
-        <v>0.838</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR335</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.646</v>
+        <v>0.665</v>
       </c>
       <c r="C72" t="n">
-        <v>0.779</v>
+        <v>0.789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.598</v>
+        <v>0.604</v>
       </c>
       <c r="E72" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="F72" t="n">
         <v>0.35</v>
       </c>
       <c r="G72" t="n">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="H72" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="I72" t="n">
-        <v>0.552</v>
+        <v>0.555</v>
       </c>
       <c r="J72" t="n">
         <v>0.639</v>
@@ -2897,32 +2897,32 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF335</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.614</v>
+        <v>0.622</v>
       </c>
       <c r="C73" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="D73" t="n">
-        <v>0.583</v>
+        <v>0.585</v>
       </c>
       <c r="E73" t="n">
-        <v>0.918</v>
+        <v>0.912</v>
       </c>
       <c r="F73" t="n">
-        <v>0.911</v>
+        <v>0.904</v>
       </c>
       <c r="G73" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="H73" t="n">
-        <v>0.27</v>
+        <v>0.281</v>
       </c>
       <c r="I73" t="n">
-        <v>0.203</v>
+        <v>0.21</v>
       </c>
       <c r="J73" t="n">
         <v>0.974</v>
@@ -2931,7 +2931,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN335</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.422</v>
+        <v>0.773</v>
       </c>
       <c r="F74" t="n">
-        <v>1.289</v>
+        <v>1.039</v>
       </c>
       <c r="G74" t="n">
-        <v>0.227</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0.476</v>
+        <v>0.293</v>
       </c>
       <c r="I74" t="n">
-        <v>0.39</v>
+        <v>0.252</v>
       </c>
       <c r="J74" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.602</v>
+        <v>0.823</v>
       </c>
       <c r="F75" t="n">
-        <v>2.194</v>
+        <v>1.088</v>
       </c>
       <c r="G75" t="n">
-        <v>0.157</v>
+        <v>0.067</v>
       </c>
       <c r="H75" t="n">
-        <v>0.396</v>
+        <v>0.259</v>
       </c>
       <c r="I75" t="n">
-        <v>0.33</v>
+        <v>0.194</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="76">
@@ -3012,87 +3012,87 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.648</v>
+        <v>0.672</v>
       </c>
       <c r="F76" t="n">
-        <v>0.618</v>
+        <v>0.643</v>
       </c>
       <c r="G76" t="n">
-        <v>0.312</v>
+        <v>0.295</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.543</v>
       </c>
       <c r="I76" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="J76" t="n">
-        <v>0.841</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D77" t="n">
         <v>0.614</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.589</v>
-      </c>
       <c r="E77" t="n">
-        <v>0.403</v>
+        <v>0.419</v>
       </c>
       <c r="F77" t="n">
-        <v>0.352</v>
+        <v>0.37</v>
       </c>
       <c r="G77" t="n">
-        <v>0.528</v>
+        <v>0.523</v>
       </c>
       <c r="H77" t="n">
-        <v>0.727</v>
+        <v>0.723</v>
       </c>
       <c r="I77" t="n">
-        <v>0.548</v>
+        <v>0.544</v>
       </c>
       <c r="J77" t="n">
-        <v>0.639</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.581</v>
+        <v>0.656</v>
       </c>
       <c r="C78" t="n">
-        <v>0.735</v>
+        <v>0.769</v>
       </c>
       <c r="D78" t="n">
-        <v>0.571</v>
+        <v>0.596</v>
       </c>
       <c r="E78" t="n">
-        <v>0.909</v>
+        <v>0.904</v>
       </c>
       <c r="F78" t="n">
-        <v>0.901</v>
+        <v>0.896</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0.283</v>
+        <v>0.295</v>
       </c>
       <c r="I78" t="n">
-        <v>0.207</v>
+        <v>0.213</v>
       </c>
       <c r="J78" t="n">
         <v>0.972</v>
@@ -3101,7 +3101,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.343</v>
+        <v>0.861</v>
       </c>
       <c r="F79" t="n">
-        <v>1.025</v>
+        <v>1.032</v>
       </c>
       <c r="G79" t="n">
-        <v>0.018</v>
+        <v>0.195</v>
       </c>
       <c r="H79" t="n">
-        <v>0.134</v>
+        <v>0.442</v>
       </c>
       <c r="I79" t="n">
-        <v>0.128</v>
+        <v>0.242</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.329</v>
+        <v>-12.854</v>
       </c>
       <c r="F80" t="n">
-        <v>1.121</v>
+        <v>10.896</v>
       </c>
       <c r="G80" t="n">
-        <v>0.036</v>
+        <v>19.394</v>
       </c>
       <c r="H80" t="n">
-        <v>0.19</v>
+        <v>4.404</v>
       </c>
       <c r="I80" t="n">
-        <v>0.149</v>
+        <v>2.869</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="81">
@@ -3182,87 +3182,87 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.627</v>
+        <v>0.651</v>
       </c>
       <c r="F81" t="n">
-        <v>0.595</v>
+        <v>0.621</v>
       </c>
       <c r="G81" t="n">
-        <v>0.33</v>
+        <v>0.314</v>
       </c>
       <c r="H81" t="n">
-        <v>0.574</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>0.426</v>
+        <v>0.412</v>
       </c>
       <c r="J81" t="n">
-        <v>0.834</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.659</v>
+        <v>0.674</v>
       </c>
       <c r="C82" t="n">
-        <v>0.785</v>
+        <v>0.794</v>
       </c>
       <c r="D82" t="n">
-        <v>0.597</v>
+        <v>0.606</v>
       </c>
       <c r="E82" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="F82" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="G82" t="n">
-        <v>0.525</v>
+        <v>0.519</v>
       </c>
       <c r="H82" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="I82" t="n">
-        <v>0.545</v>
+        <v>0.54</v>
       </c>
       <c r="J82" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.661</v>
+        <v>0.613</v>
       </c>
       <c r="C83" t="n">
-        <v>0.772</v>
+        <v>0.741</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="E83" t="n">
-        <v>0.907</v>
+        <v>0.913</v>
       </c>
       <c r="F83" t="n">
-        <v>0.899</v>
+        <v>0.906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.083</v>
+        <v>0.078</v>
       </c>
       <c r="H83" t="n">
-        <v>0.288</v>
+        <v>0.279</v>
       </c>
       <c r="I83" t="n">
-        <v>0.213</v>
+        <v>0.212</v>
       </c>
       <c r="J83" t="n">
         <v>0.972</v>
@@ -3271,7 +3271,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.275</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>1.088</v>
+        <v>1.003</v>
       </c>
       <c r="G84" t="n">
-        <v>0.97</v>
+        <v>0.005</v>
       </c>
       <c r="H84" t="n">
-        <v>0.985</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>0.963</v>
+        <v>0.058</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.99</v>
+        <v>-11.996</v>
       </c>
       <c r="F85" t="n">
-        <v>1.545</v>
+        <v>2.181</v>
       </c>
       <c r="G85" t="n">
-        <v>2.554</v>
+        <v>0.988</v>
       </c>
       <c r="H85" t="n">
-        <v>1.598</v>
+        <v>0.994</v>
       </c>
       <c r="I85" t="n">
-        <v>1.572</v>
+        <v>0.899</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,53 +3352,53 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.652</v>
+        <v>0.655</v>
       </c>
       <c r="F86" t="n">
-        <v>0.622</v>
+        <v>0.626</v>
       </c>
       <c r="G86" t="n">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I86" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
       <c r="J86" t="n">
-        <v>0.85</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.712</v>
+        <v>0.681</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.798</v>
       </c>
       <c r="D87" t="n">
-        <v>0.614</v>
+        <v>0.605</v>
       </c>
       <c r="E87" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="F87" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="G87" t="n">
-        <v>0.523</v>
+        <v>0.519</v>
       </c>
       <c r="H87" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="I87" t="n">
-        <v>0.544</v>
+        <v>0.539</v>
       </c>
       <c r="J87" t="n">
         <v>0.651</v>
@@ -3407,41 +3407,41 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.664</v>
+        <v>0.615</v>
       </c>
       <c r="C88" t="n">
-        <v>0.771</v>
+        <v>0.742</v>
       </c>
       <c r="D88" t="n">
-        <v>0.598</v>
+        <v>0.585</v>
       </c>
       <c r="E88" t="n">
-        <v>0.907</v>
+        <v>0.904</v>
       </c>
       <c r="F88" t="n">
-        <v>0.899</v>
+        <v>0.896</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
       <c r="I88" t="n">
-        <v>0.213</v>
+        <v>0.217</v>
       </c>
       <c r="J88" t="n">
-        <v>0.971</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.506</v>
+        <v>0.966</v>
       </c>
       <c r="F89" t="n">
-        <v>1.173</v>
+        <v>1.001</v>
       </c>
       <c r="G89" t="n">
-        <v>2.808</v>
+        <v>0.001</v>
       </c>
       <c r="H89" t="n">
-        <v>1.676</v>
+        <v>0.032</v>
       </c>
       <c r="I89" t="n">
-        <v>1.621</v>
+        <v>0.026</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3488,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-78.55500000000001</v>
+        <v>-22.518</v>
       </c>
       <c r="F90" t="n">
-        <v>8.231999999999999</v>
+        <v>3.138</v>
       </c>
       <c r="G90" t="n">
-        <v>49.566</v>
+        <v>0.471</v>
       </c>
       <c r="H90" t="n">
-        <v>7.04</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>5.492</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3522,96 +3522,96 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.648</v>
+        <v>0.664</v>
       </c>
       <c r="F91" t="n">
-        <v>0.618</v>
+        <v>0.636</v>
       </c>
       <c r="G91" t="n">
-        <v>0.316</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="I91" t="n">
-        <v>0.421</v>
+        <v>0.409</v>
       </c>
       <c r="J91" t="n">
-        <v>0.844</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.674</v>
+        <v>0.661</v>
       </c>
       <c r="C92" t="n">
-        <v>0.794</v>
+        <v>0.784</v>
       </c>
       <c r="D92" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="E92" t="n">
-        <v>0.421</v>
+        <v>0.414</v>
       </c>
       <c r="F92" t="n">
-        <v>0.372</v>
+        <v>0.365</v>
       </c>
       <c r="G92" t="n">
-        <v>0.519</v>
+        <v>0.522</v>
       </c>
       <c r="H92" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="I92" t="n">
-        <v>0.54</v>
+        <v>0.539</v>
       </c>
       <c r="J92" t="n">
-        <v>0.653</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.611</v>
+        <v>0.607</v>
       </c>
       <c r="C93" t="n">
-        <v>0.742</v>
+        <v>0.736</v>
       </c>
       <c r="D93" t="n">
-        <v>0.584</v>
+        <v>0.577</v>
       </c>
       <c r="E93" t="n">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
       <c r="F93" t="n">
-        <v>0.899</v>
+        <v>0.901</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="H93" t="n">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="I93" t="n">
-        <v>0.211</v>
+        <v>0.209</v>
       </c>
       <c r="J93" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.029</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>1.193</v>
+        <v>1.007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.382</v>
+        <v>0.01</v>
       </c>
       <c r="H94" t="n">
-        <v>0.618</v>
+        <v>0.1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.587</v>
+        <v>0.076</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -3658,19 +3658,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.992</v>
+        <v>-3.446</v>
       </c>
       <c r="F95" t="n">
-        <v>1.272</v>
+        <v>1.404</v>
       </c>
       <c r="G95" t="n">
-        <v>0.228</v>
+        <v>0.224</v>
       </c>
       <c r="H95" t="n">
-        <v>0.477</v>
+        <v>0.473</v>
       </c>
       <c r="I95" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -3692,44 +3692,44 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.642</v>
+        <v>0.668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.612</v>
+        <v>0.64</v>
       </c>
       <c r="G96" t="n">
-        <v>0.321</v>
+        <v>0.295</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="I96" t="n">
-        <v>0.425</v>
+        <v>0.406</v>
       </c>
       <c r="J96" t="n">
-        <v>0.834</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.681</v>
+        <v>0.652</v>
       </c>
       <c r="C97" t="n">
-        <v>0.798</v>
+        <v>0.779</v>
       </c>
       <c r="D97" t="n">
-        <v>0.605</v>
+        <v>0.596</v>
       </c>
       <c r="E97" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="F97" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="G97" t="n">
         <v>0.519</v>
@@ -3741,47 +3741,47 @@
         <v>0.539</v>
       </c>
       <c r="J97" t="n">
-        <v>0.651</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.614</v>
+        <v>0.606</v>
       </c>
       <c r="C98" t="n">
-        <v>0.742</v>
+        <v>0.736</v>
       </c>
       <c r="D98" t="n">
-        <v>0.584</v>
+        <v>0.577</v>
       </c>
       <c r="E98" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="F98" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="H98" t="n">
-        <v>0.283</v>
+        <v>0.286</v>
       </c>
       <c r="I98" t="n">
-        <v>0.214</v>
+        <v>0.215</v>
       </c>
       <c r="J98" t="n">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3794,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-3.254</v>
+        <v>-1.804</v>
       </c>
       <c r="F99" t="n">
-        <v>1.164</v>
+        <v>1.108</v>
       </c>
       <c r="G99" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
       <c r="I99" t="n">
-        <v>0.277</v>
+        <v>0.27</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3828,22 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-9.901</v>
+        <v>-1.148</v>
       </c>
       <c r="F100" t="n">
-        <v>1.991</v>
+        <v>1.195</v>
       </c>
       <c r="G100" t="n">
-        <v>0.218</v>
+        <v>0.067</v>
       </c>
       <c r="H100" t="n">
-        <v>0.467</v>
+        <v>0.259</v>
       </c>
       <c r="I100" t="n">
-        <v>0.458</v>
+        <v>0.212</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,72 +3862,72 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.636</v>
+        <v>0.646</v>
       </c>
       <c r="F101" t="n">
-        <v>0.605</v>
+        <v>0.617</v>
       </c>
       <c r="G101" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="H101" t="n">
-        <v>0.57</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I101" t="n">
-        <v>0.424</v>
+        <v>0.418</v>
       </c>
       <c r="J101" t="n">
-        <v>0.852</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.661</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.784</v>
+        <v>0.796</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="E102" t="n">
-        <v>0.414</v>
+        <v>0.425</v>
       </c>
       <c r="F102" t="n">
-        <v>0.365</v>
+        <v>0.378</v>
       </c>
       <c r="G102" t="n">
-        <v>0.522</v>
+        <v>0.517</v>
       </c>
       <c r="H102" t="n">
-        <v>0.722</v>
+        <v>0.719</v>
       </c>
       <c r="I102" t="n">
-        <v>0.539</v>
+        <v>0.541</v>
       </c>
       <c r="J102" t="n">
-        <v>0.647</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="C103" t="n">
-        <v>0.736</v>
+        <v>0.744</v>
       </c>
       <c r="D103" t="n">
-        <v>0.58</v>
+        <v>0.586</v>
       </c>
       <c r="E103" t="n">
         <v>0.911</v>
@@ -3936,22 +3936,22 @@
         <v>0.904</v>
       </c>
       <c r="G103" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="H103" t="n">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
       <c r="I103" t="n">
-        <v>0.213</v>
+        <v>0.212</v>
       </c>
       <c r="J103" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3964,19 +3964,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.056</v>
+        <v>0.946</v>
       </c>
       <c r="F104" t="n">
-        <v>1.036</v>
+        <v>1.002</v>
       </c>
       <c r="G104" t="n">
-        <v>0.048</v>
+        <v>0.001</v>
       </c>
       <c r="H104" t="n">
-        <v>0.219</v>
+        <v>0.032</v>
       </c>
       <c r="I104" t="n">
-        <v>0.217</v>
+        <v>0.038</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -3998,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-5.242</v>
+        <v>-62.256</v>
       </c>
       <c r="F105" t="n">
-        <v>1.567</v>
+        <v>6.751</v>
       </c>
       <c r="G105" t="n">
-        <v>0.315</v>
+        <v>1.71</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5610000000000001</v>
+        <v>1.308</v>
       </c>
       <c r="I105" t="n">
-        <v>0.47</v>
+        <v>1.151</v>
       </c>
       <c r="J105" t="n">
         <v>-1</v>
@@ -4032,72 +4032,72 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.639</v>
+        <v>0.658</v>
       </c>
       <c r="F106" t="n">
-        <v>0.609</v>
+        <v>0.63</v>
       </c>
       <c r="G106" t="n">
-        <v>0.321</v>
+        <v>0.308</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="I106" t="n">
-        <v>0.421</v>
+        <v>0.416</v>
       </c>
       <c r="J106" t="n">
-        <v>0.837</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.652</v>
+        <v>0.67</v>
       </c>
       <c r="C107" t="n">
-        <v>0.779</v>
+        <v>0.788</v>
       </c>
       <c r="D107" t="n">
-        <v>0.596</v>
+        <v>0.607</v>
       </c>
       <c r="E107" t="n">
-        <v>0.416</v>
+        <v>0.436</v>
       </c>
       <c r="F107" t="n">
-        <v>0.368</v>
+        <v>0.39</v>
       </c>
       <c r="G107" t="n">
-        <v>0.519</v>
+        <v>0.517</v>
       </c>
       <c r="H107" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="I107" t="n">
-        <v>0.539</v>
+        <v>0.542</v>
       </c>
       <c r="J107" t="n">
-        <v>0.649</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.609</v>
+        <v>0.629</v>
       </c>
       <c r="C108" t="n">
-        <v>0.739</v>
+        <v>0.753</v>
       </c>
       <c r="D108" t="n">
-        <v>0.581</v>
+        <v>0.591</v>
       </c>
       <c r="E108" t="n">
         <v>0.902</v>
@@ -4106,22 +4106,22 @@
         <v>0.894</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H108" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="I108" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
       <c r="J108" t="n">
-        <v>0.967</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4134,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.141</v>
+        <v>-0.715</v>
       </c>
       <c r="F109" t="n">
-        <v>1.159</v>
+        <v>1.066</v>
       </c>
       <c r="G109" t="n">
-        <v>0.129</v>
+        <v>0.058</v>
       </c>
       <c r="H109" t="n">
-        <v>0.359</v>
+        <v>0.241</v>
       </c>
       <c r="I109" t="n">
-        <v>0.355</v>
+        <v>0.173</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.401</v>
+        <v>-17.559</v>
       </c>
       <c r="F110" t="n">
-        <v>1.764</v>
+        <v>2.687</v>
       </c>
       <c r="G110" t="n">
-        <v>0.262</v>
+        <v>0.631</v>
       </c>
       <c r="H110" t="n">
-        <v>0.512</v>
+        <v>0.794</v>
       </c>
       <c r="I110" t="n">
-        <v>0.506</v>
+        <v>0.73</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4202,96 +4202,96 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.646</v>
+        <v>0.645</v>
       </c>
       <c r="F111" t="n">
-        <v>0.617</v>
+        <v>0.616</v>
       </c>
       <c r="G111" t="n">
-        <v>0.314</v>
+        <v>0.325</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I111" t="n">
-        <v>0.413</v>
+        <v>0.424</v>
       </c>
       <c r="J111" t="n">
-        <v>0.852</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="C112" t="n">
-        <v>0.796</v>
+        <v>0.785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.608</v>
+        <v>0.604</v>
       </c>
       <c r="E112" t="n">
-        <v>0.425</v>
+        <v>0.435</v>
       </c>
       <c r="F112" t="n">
-        <v>0.378</v>
+        <v>0.389</v>
       </c>
       <c r="G112" t="n">
-        <v>0.517</v>
+        <v>0.516</v>
       </c>
       <c r="H112" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="I112" t="n">
         <v>0.541</v>
       </c>
       <c r="J112" t="n">
-        <v>0.654</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="C113" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="D113" t="n">
-        <v>0.588</v>
+        <v>0.585</v>
       </c>
       <c r="E113" t="n">
-        <v>0.913</v>
+        <v>0.912</v>
       </c>
       <c r="F113" t="n">
-        <v>0.906</v>
+        <v>0.905</v>
       </c>
       <c r="G113" t="n">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="H113" t="n">
-        <v>0.279</v>
+        <v>0.283</v>
       </c>
       <c r="I113" t="n">
-        <v>0.212</v>
+        <v>0.21</v>
       </c>
       <c r="J113" t="n">
-        <v>0.974</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4304,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.325</v>
+        <v>0.907</v>
       </c>
       <c r="F114" t="n">
-        <v>1.026</v>
+        <v>1.004</v>
       </c>
       <c r="G114" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="H114" t="n">
-        <v>0.134</v>
+        <v>0.122</v>
       </c>
       <c r="I114" t="n">
-        <v>0.134</v>
+        <v>0.089</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4338,22 +4338,22 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-54.553</v>
+        <v>-2.657</v>
       </c>
       <c r="F115" t="n">
-        <v>6.05</v>
+        <v>1.332</v>
       </c>
       <c r="G115" t="n">
-        <v>1.501</v>
+        <v>0.577</v>
       </c>
       <c r="H115" t="n">
-        <v>1.225</v>
+        <v>0.76</v>
       </c>
       <c r="I115" t="n">
-        <v>1.216</v>
+        <v>0.649</v>
       </c>
       <c r="J115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4372,38 +4372,38 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.637</v>
+        <v>0.671</v>
       </c>
       <c r="F116" t="n">
-        <v>0.607</v>
+        <v>0.644</v>
       </c>
       <c r="G116" t="n">
-        <v>0.326</v>
+        <v>0.3</v>
       </c>
       <c r="H116" t="n">
-        <v>0.571</v>
+        <v>0.548</v>
       </c>
       <c r="I116" t="n">
-        <v>0.42</v>
+        <v>0.403</v>
       </c>
       <c r="J116" t="n">
-        <v>0.839</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.67</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.788</v>
+        <v>0.796</v>
       </c>
       <c r="D117" t="n">
-        <v>0.607</v>
+        <v>0.611</v>
       </c>
       <c r="E117" t="n">
         <v>0.436</v>
@@ -4421,47 +4421,47 @@
         <v>0.542</v>
       </c>
       <c r="J117" t="n">
-        <v>0.662</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.638</v>
+        <v>0.628</v>
       </c>
       <c r="C118" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="D118" t="n">
-        <v>0.598</v>
+        <v>0.596</v>
       </c>
       <c r="E118" t="n">
-        <v>0.913</v>
+        <v>0.916</v>
       </c>
       <c r="F118" t="n">
-        <v>0.906</v>
+        <v>0.909</v>
       </c>
       <c r="G118" t="n">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="H118" t="n">
-        <v>0.281</v>
+        <v>0.277</v>
       </c>
       <c r="I118" t="n">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="J118" t="n">
-        <v>0.974</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4474,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-2.499</v>
+        <v>-0.314</v>
       </c>
       <c r="F119" t="n">
-        <v>1.135</v>
+        <v>1.051</v>
       </c>
       <c r="G119" t="n">
-        <v>0.119</v>
+        <v>0.861</v>
       </c>
       <c r="H119" t="n">
-        <v>0.345</v>
+        <v>0.928</v>
       </c>
       <c r="I119" t="n">
-        <v>0.345</v>
+        <v>0.919</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-16.217</v>
+        <v>0.595</v>
       </c>
       <c r="F120" t="n">
-        <v>2.565</v>
+        <v>1.037</v>
       </c>
       <c r="G120" t="n">
-        <v>0.585</v>
+        <v>0.265</v>
       </c>
       <c r="H120" t="n">
-        <v>0.765</v>
+        <v>0.515</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.402</v>
       </c>
       <c r="J120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4542,44 +4542,44 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.664</v>
+        <v>0.656</v>
       </c>
       <c r="F121" t="n">
-        <v>0.637</v>
+        <v>0.628</v>
       </c>
       <c r="G121" t="n">
-        <v>0.308</v>
+        <v>0.315</v>
       </c>
       <c r="H121" t="n">
-        <v>0.555</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I121" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="J121" t="n">
-        <v>0.85</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.667</v>
+        <v>0.695</v>
       </c>
       <c r="C122" t="n">
-        <v>0.785</v>
+        <v>0.801</v>
       </c>
       <c r="D122" t="n">
-        <v>0.604</v>
+        <v>0.615</v>
       </c>
       <c r="E122" t="n">
         <v>0.435</v>
       </c>
       <c r="F122" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="G122" t="n">
         <v>0.516</v>
@@ -4588,7 +4588,7 @@
         <v>0.718</v>
       </c>
       <c r="I122" t="n">
-        <v>0.541</v>
+        <v>0.542</v>
       </c>
       <c r="J122" t="n">
         <v>0.662</v>
@@ -4597,41 +4597,41 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.629</v>
+        <v>0.632</v>
       </c>
       <c r="C123" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="D123" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="E123" t="n">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="F123" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="G123" t="n">
-        <v>0.079</v>
+        <v>0.082</v>
       </c>
       <c r="H123" t="n">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="I123" t="n">
-        <v>0.21</v>
+        <v>0.216</v>
       </c>
       <c r="J123" t="n">
-        <v>0.974</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4644,19 +4644,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.744</v>
+        <v>0.926</v>
       </c>
       <c r="F124" t="n">
-        <v>1.01</v>
+        <v>1.003</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04</v>
+        <v>0.005</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I124" t="n">
-        <v>0.166</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -4678,22 +4678,22 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.543</v>
+        <v>-3.872</v>
       </c>
       <c r="F125" t="n">
-        <v>1.042</v>
+        <v>1.443</v>
       </c>
       <c r="G125" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.346</v>
       </c>
       <c r="H125" t="n">
-        <v>0.268</v>
+        <v>0.588</v>
       </c>
       <c r="I125" t="n">
-        <v>0.265</v>
+        <v>0.442</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -4712,96 +4712,96 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.641</v>
+        <v>0.664</v>
       </c>
       <c r="F126" t="n">
-        <v>0.612</v>
+        <v>0.637</v>
       </c>
       <c r="G126" t="n">
-        <v>0.328</v>
+        <v>0.308</v>
       </c>
       <c r="H126" t="n">
-        <v>0.573</v>
+        <v>0.555</v>
       </c>
       <c r="I126" t="n">
-        <v>0.427</v>
+        <v>0.414</v>
       </c>
       <c r="J126" t="n">
-        <v>0.854</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.704</v>
       </c>
       <c r="C127" t="n">
-        <v>0.796</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.611</v>
+        <v>0.624</v>
       </c>
       <c r="E127" t="n">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
       <c r="F127" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="G127" t="n">
-        <v>0.517</v>
+        <v>0.52</v>
       </c>
       <c r="H127" t="n">
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="I127" t="n">
-        <v>0.542</v>
+        <v>0.544</v>
       </c>
       <c r="J127" t="n">
-        <v>0.663</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.629</v>
+        <v>0.66</v>
       </c>
       <c r="C128" t="n">
-        <v>0.753</v>
+        <v>0.774</v>
       </c>
       <c r="D128" t="n">
-        <v>0.59</v>
+        <v>0.604</v>
       </c>
       <c r="E128" t="n">
-        <v>0.909</v>
+        <v>0.906</v>
       </c>
       <c r="F128" t="n">
-        <v>0.902</v>
+        <v>0.898</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="I128" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="J128" t="n">
-        <v>0.971</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4814,19 +4814,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.761</v>
+        <v>-14.053</v>
       </c>
       <c r="F129" t="n">
-        <v>1.068</v>
+        <v>1.579</v>
       </c>
       <c r="G129" t="n">
-        <v>1.154</v>
+        <v>0.163</v>
       </c>
       <c r="H129" t="n">
-        <v>1.074</v>
+        <v>0.404</v>
       </c>
       <c r="I129" t="n">
-        <v>0.855</v>
+        <v>0.387</v>
       </c>
       <c r="J129" t="n">
         <v>-1</v>
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.913</v>
+        <v>-1335.957</v>
       </c>
       <c r="F130" t="n">
-        <v>1.008</v>
+        <v>122.542</v>
       </c>
       <c r="G130" t="n">
-        <v>0.057</v>
+        <v>14.5</v>
       </c>
       <c r="H130" t="n">
-        <v>0.239</v>
+        <v>3.808</v>
       </c>
       <c r="I130" t="n">
-        <v>0.236</v>
+        <v>2.711</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -4882,96 +4882,96 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.657</v>
+        <v>0.666</v>
       </c>
       <c r="F131" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="G131" t="n">
-        <v>0.315</v>
+        <v>0.311</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I131" t="n">
         <v>0.414</v>
       </c>
       <c r="J131" t="n">
-        <v>0.866</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.695</v>
+        <v>0.714</v>
       </c>
       <c r="C132" t="n">
-        <v>0.801</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="E132" t="n">
-        <v>0.435</v>
+        <v>0.46</v>
       </c>
       <c r="F132" t="n">
-        <v>0.39</v>
+        <v>0.417</v>
       </c>
       <c r="G132" t="n">
-        <v>0.516</v>
+        <v>0.518</v>
       </c>
       <c r="H132" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="I132" t="n">
-        <v>0.542</v>
+        <v>0.543</v>
       </c>
       <c r="J132" t="n">
-        <v>0.662</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.63</v>
+        <v>0.698</v>
       </c>
       <c r="C133" t="n">
-        <v>0.754</v>
+        <v>0.794</v>
       </c>
       <c r="D133" t="n">
-        <v>0.597</v>
+        <v>0.617</v>
       </c>
       <c r="E133" t="n">
-        <v>0.91</v>
+        <v>0.903</v>
       </c>
       <c r="F133" t="n">
-        <v>0.903</v>
+        <v>0.895</v>
       </c>
       <c r="G133" t="n">
-        <v>0.083</v>
+        <v>0.092</v>
       </c>
       <c r="H133" t="n">
-        <v>0.288</v>
+        <v>0.303</v>
       </c>
       <c r="I133" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="J133" t="n">
-        <v>0.973</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.455</v>
+        <v>0.598</v>
       </c>
       <c r="F134" t="n">
-        <v>1.021</v>
+        <v>1.015</v>
       </c>
       <c r="G134" t="n">
-        <v>0.039</v>
+        <v>0.508</v>
       </c>
       <c r="H134" t="n">
-        <v>0.197</v>
+        <v>0.713</v>
       </c>
       <c r="I134" t="n">
-        <v>0.176</v>
+        <v>0.699</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5018,22 +5018,22 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>-4.77</v>
+        <v>-0.178</v>
       </c>
       <c r="F135" t="n">
-        <v>1.525</v>
+        <v>1.107</v>
       </c>
       <c r="G135" t="n">
-        <v>0.41</v>
+        <v>1.49</v>
       </c>
       <c r="H135" t="n">
-        <v>0.64</v>
+        <v>1.221</v>
       </c>
       <c r="I135" t="n">
-        <v>0.5659999999999999</v>
+        <v>1.215</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -5052,96 +5052,96 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.652</v>
+        <v>0.67</v>
       </c>
       <c r="F136" t="n">
-        <v>0.624</v>
+        <v>0.644</v>
       </c>
       <c r="G136" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>0.415</v>
+        <v>0.418</v>
       </c>
       <c r="J136" t="n">
-        <v>0.846</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.704</v>
+        <v>0.772</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="D137" t="n">
-        <v>0.624</v>
+        <v>0.638</v>
       </c>
       <c r="E137" t="n">
-        <v>0.442</v>
+        <v>0.479</v>
       </c>
       <c r="F137" t="n">
-        <v>0.397</v>
+        <v>0.438</v>
       </c>
       <c r="G137" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="H137" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="I137" t="n">
-        <v>0.544</v>
+        <v>0.546</v>
       </c>
       <c r="J137" t="n">
-        <v>0.667</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.677</v>
+        <v>0.756</v>
       </c>
       <c r="C138" t="n">
-        <v>0.784</v>
+        <v>0.826</v>
       </c>
       <c r="D138" t="n">
-        <v>0.614</v>
+        <v>0.633</v>
       </c>
       <c r="E138" t="n">
-        <v>0.916</v>
+        <v>0.912</v>
       </c>
       <c r="F138" t="n">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="G138" t="n">
-        <v>0.078</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0.279</v>
+        <v>0.297</v>
       </c>
       <c r="I138" t="n">
-        <v>0.209</v>
+        <v>0.222</v>
       </c>
       <c r="J138" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5154,19 +5154,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-39.957</v>
+        <v>0.417</v>
       </c>
       <c r="F139" t="n">
-        <v>2.575</v>
+        <v>1.022</v>
       </c>
       <c r="G139" t="n">
-        <v>0.444</v>
+        <v>0.09</v>
       </c>
       <c r="H139" t="n">
-        <v>0.666</v>
+        <v>0.3</v>
       </c>
       <c r="I139" t="n">
-        <v>0.635</v>
+        <v>0.291</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -5188,22 +5188,22 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-198.824</v>
+        <v>-23.626</v>
       </c>
       <c r="F140" t="n">
-        <v>19.166</v>
+        <v>3.239</v>
       </c>
       <c r="G140" t="n">
-        <v>2.167</v>
+        <v>3.797</v>
       </c>
       <c r="H140" t="n">
-        <v>1.472</v>
+        <v>1.949</v>
       </c>
       <c r="I140" t="n">
-        <v>1.129</v>
+        <v>1.692</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -5222,96 +5222,96 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.661</v>
+        <v>0.698</v>
       </c>
       <c r="F141" t="n">
-        <v>0.634</v>
+        <v>0.674</v>
       </c>
       <c r="G141" t="n">
-        <v>0.315</v>
+        <v>0.303</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I141" t="n">
-        <v>0.413</v>
+        <v>0.416</v>
       </c>
       <c r="J141" t="n">
-        <v>0.859</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.714</v>
+        <v>0.759</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="D142" t="n">
-        <v>0.625</v>
+        <v>0.638</v>
       </c>
       <c r="E142" t="n">
-        <v>0.46</v>
+        <v>0.471</v>
       </c>
       <c r="F142" t="n">
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="G142" t="n">
-        <v>0.518</v>
+        <v>0.528</v>
       </c>
       <c r="H142" t="n">
-        <v>0.72</v>
+        <v>0.727</v>
       </c>
       <c r="I142" t="n">
-        <v>0.543</v>
+        <v>0.55</v>
       </c>
       <c r="J142" t="n">
-        <v>0.68</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.738</v>
       </c>
       <c r="C143" t="n">
-        <v>0.789</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.614</v>
+        <v>0.628</v>
       </c>
       <c r="E143" t="n">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
       <c r="F143" t="n">
-        <v>0.905</v>
+        <v>0.901</v>
       </c>
       <c r="G143" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="H143" t="n">
-        <v>0.29</v>
+        <v>0.303</v>
       </c>
       <c r="I143" t="n">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
       <c r="J143" t="n">
-        <v>0.973</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5324,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.079</v>
+        <v>-9.157</v>
       </c>
       <c r="F144" t="n">
-        <v>1.042</v>
+        <v>1.391</v>
       </c>
       <c r="G144" t="n">
-        <v>1.364</v>
+        <v>0.012</v>
       </c>
       <c r="H144" t="n">
-        <v>1.168</v>
+        <v>0.11</v>
       </c>
       <c r="I144" t="n">
-        <v>1.142</v>
+        <v>0.091</v>
       </c>
       <c r="J144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5358,19 +5358,19 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.973</v>
+        <v>-251.021</v>
       </c>
       <c r="F145" t="n">
-        <v>1.002</v>
+        <v>23.911</v>
       </c>
       <c r="G145" t="n">
-        <v>0.034</v>
+        <v>0.295</v>
       </c>
       <c r="H145" t="n">
-        <v>0.184</v>
+        <v>0.543</v>
       </c>
       <c r="I145" t="n">
-        <v>0.135</v>
+        <v>0.508</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5392,96 +5392,96 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.67</v>
+        <v>0.678</v>
       </c>
       <c r="F146" t="n">
-        <v>0.644</v>
+        <v>0.653</v>
       </c>
       <c r="G146" t="n">
-        <v>0.316</v>
+        <v>0.322</v>
       </c>
       <c r="H146" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
       <c r="J146" t="n">
-        <v>0.852</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.772</v>
+        <v>0.767</v>
       </c>
       <c r="C147" t="n">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="D147" t="n">
-        <v>0.638</v>
+        <v>0.642</v>
       </c>
       <c r="E147" t="n">
-        <v>0.479</v>
+        <v>0.47</v>
       </c>
       <c r="F147" t="n">
-        <v>0.438</v>
+        <v>0.429</v>
       </c>
       <c r="G147" t="n">
-        <v>0.522</v>
+        <v>0.527</v>
       </c>
       <c r="H147" t="n">
-        <v>0.722</v>
+        <v>0.726</v>
       </c>
       <c r="I147" t="n">
-        <v>0.546</v>
+        <v>0.549</v>
       </c>
       <c r="J147" t="n">
-        <v>0.694</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.768</v>
+        <v>0.757</v>
       </c>
       <c r="C148" t="n">
-        <v>0.829</v>
+        <v>0.824</v>
       </c>
       <c r="D148" t="n">
-        <v>0.633</v>
+        <v>0.637</v>
       </c>
       <c r="E148" t="n">
-        <v>0.914</v>
+        <v>0.905</v>
       </c>
       <c r="F148" t="n">
-        <v>0.907</v>
+        <v>0.898</v>
       </c>
       <c r="G148" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="H148" t="n">
-        <v>0.293</v>
+        <v>0.307</v>
       </c>
       <c r="I148" t="n">
-        <v>0.219</v>
+        <v>0.225</v>
       </c>
       <c r="J148" t="n">
-        <v>0.972</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5494,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-12.789</v>
+        <v>0.858</v>
       </c>
       <c r="F149" t="n">
-        <v>1.53</v>
+        <v>1.005</v>
       </c>
       <c r="G149" t="n">
-        <v>2.126</v>
+        <v>0.011</v>
       </c>
       <c r="H149" t="n">
-        <v>1.458</v>
+        <v>0.105</v>
       </c>
       <c r="I149" t="n">
-        <v>1.428</v>
+        <v>0.1</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5528,19 +5528,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-10.351</v>
+        <v>-5.224</v>
       </c>
       <c r="F150" t="n">
-        <v>2.032</v>
+        <v>1.566</v>
       </c>
       <c r="G150" t="n">
-        <v>1.75</v>
+        <v>0.474</v>
       </c>
       <c r="H150" t="n">
-        <v>1.323</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I150" t="n">
-        <v>1.131</v>
+        <v>0.536</v>
       </c>
       <c r="J150" t="n">
         <v>-1</v>
@@ -5562,96 +5562,96 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="F151" t="n">
-        <v>0.652</v>
+        <v>0.655</v>
       </c>
       <c r="G151" t="n">
-        <v>0.324</v>
+        <v>0.318</v>
       </c>
       <c r="H151" t="n">
-        <v>0.569</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I151" t="n">
-        <v>0.427</v>
+        <v>0.422</v>
       </c>
       <c r="J151" t="n">
-        <v>0.862</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.759</v>
+        <v>0.793</v>
       </c>
       <c r="C152" t="n">
-        <v>0.835</v>
+        <v>0.854</v>
       </c>
       <c r="D152" t="n">
-        <v>0.638</v>
+        <v>0.651</v>
       </c>
       <c r="E152" t="n">
-        <v>0.471</v>
+        <v>0.419</v>
       </c>
       <c r="F152" t="n">
-        <v>0.429</v>
+        <v>0.374</v>
       </c>
       <c r="G152" t="n">
-        <v>0.528</v>
+        <v>0.58</v>
       </c>
       <c r="H152" t="n">
-        <v>0.727</v>
+        <v>0.762</v>
       </c>
       <c r="I152" t="n">
-        <v>0.55</v>
+        <v>0.572</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="C153" t="n">
-        <v>0.826</v>
+        <v>0.824</v>
       </c>
       <c r="D153" t="n">
-        <v>0.639</v>
+        <v>0.636</v>
       </c>
       <c r="E153" t="n">
-        <v>0.908</v>
+        <v>0.903</v>
       </c>
       <c r="F153" t="n">
-        <v>0.901</v>
+        <v>0.895</v>
       </c>
       <c r="G153" t="n">
-        <v>0.092</v>
+        <v>0.097</v>
       </c>
       <c r="H153" t="n">
-        <v>0.303</v>
+        <v>0.311</v>
       </c>
       <c r="I153" t="n">
-        <v>0.221</v>
+        <v>0.226</v>
       </c>
       <c r="J153" t="n">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5664,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-820.7</v>
+        <v>0.754</v>
       </c>
       <c r="F154" t="n">
-        <v>32.604</v>
+        <v>1.009</v>
       </c>
       <c r="G154" t="n">
-        <v>0.961</v>
+        <v>0.022</v>
       </c>
       <c r="H154" t="n">
-        <v>0.98</v>
+        <v>0.148</v>
       </c>
       <c r="I154" t="n">
-        <v>0.977</v>
+        <v>0.116</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5698,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>-408.661</v>
+        <v>-10.472</v>
       </c>
       <c r="F155" t="n">
-        <v>38.242</v>
+        <v>2.043</v>
       </c>
       <c r="G155" t="n">
-        <v>0.479</v>
+        <v>1.02</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6919999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="I155" t="n">
-        <v>0.619</v>
+        <v>1.009</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5732,96 +5732,96 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.664</v>
+        <v>0.643</v>
       </c>
       <c r="F156" t="n">
-        <v>0.638</v>
+        <v>0.615</v>
       </c>
       <c r="G156" t="n">
-        <v>0.336</v>
+        <v>0.356</v>
       </c>
       <c r="H156" t="n">
-        <v>0.58</v>
+        <v>0.597</v>
       </c>
       <c r="I156" t="n">
-        <v>0.432</v>
+        <v>0.446</v>
       </c>
       <c r="J156" t="n">
-        <v>0.859</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.767</v>
+        <v>0.7387857142857143</v>
       </c>
       <c r="C157" t="n">
-        <v>0.839</v>
+        <v>0.8153571428571429</v>
       </c>
       <c r="D157" t="n">
-        <v>0.642</v>
+        <v>0.6293571428571428</v>
       </c>
       <c r="E157" t="n">
-        <v>0.47</v>
+        <v>0.3925714285714286</v>
       </c>
       <c r="F157" t="n">
-        <v>0.429</v>
+        <v>0.3208571428571428</v>
       </c>
       <c r="G157" t="n">
-        <v>0.527</v>
+        <v>0.559642857142857</v>
       </c>
       <c r="H157" t="n">
-        <v>0.726</v>
+        <v>0.7478571428571428</v>
       </c>
       <c r="I157" t="n">
-        <v>0.549</v>
+        <v>0.5697142857142857</v>
       </c>
       <c r="J157" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.791</v>
+        <v>0.7069285714285715</v>
       </c>
       <c r="C158" t="n">
-        <v>0.839</v>
+        <v>0.7761428571428571</v>
       </c>
       <c r="D158" t="n">
-        <v>0.644</v>
+        <v>0.6045</v>
       </c>
       <c r="E158" t="n">
-        <v>0.909</v>
+        <v>0.9042142857142856</v>
       </c>
       <c r="F158" t="n">
-        <v>0.902</v>
+        <v>0.8927857142857142</v>
       </c>
       <c r="G158" t="n">
-        <v>0.091</v>
+        <v>0.0885</v>
       </c>
       <c r="H158" t="n">
-        <v>0.302</v>
+        <v>0.2969285714285714</v>
       </c>
       <c r="I158" t="n">
-        <v>0.222</v>
+        <v>0.2157857142857143</v>
       </c>
       <c r="J158" t="n">
-        <v>0.97</v>
+        <v>0.9745714285714284</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5834,28 +5834,28 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-5.96</v>
+        <v>0.453</v>
       </c>
       <c r="F159" t="n">
-        <v>1.268</v>
+        <v>2.081714285714285</v>
       </c>
       <c r="G159" t="n">
-        <v>0.53</v>
+        <v>0.5723214285714285</v>
       </c>
       <c r="H159" t="n">
-        <v>0.728</v>
+        <v>0.6425000000000001</v>
       </c>
       <c r="I159" t="n">
-        <v>0.702</v>
+        <v>0.5060714285714286</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0.7126428571428571</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5868,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-22.599</v>
+        <v>0.3385714285714285</v>
       </c>
       <c r="F160" t="n">
-        <v>3.145</v>
+        <v>2.959857142857143</v>
       </c>
       <c r="G160" t="n">
-        <v>1.796</v>
+        <v>0.7685714285714286</v>
       </c>
       <c r="H160" t="n">
-        <v>1.34</v>
+        <v>0.7291428571428572</v>
       </c>
       <c r="I160" t="n">
-        <v>1.333</v>
+        <v>0.5720714285714286</v>
       </c>
       <c r="J160" t="n">
-        <v>-1</v>
+        <v>0.6557142857142857</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5902,96 +5902,96 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.66</v>
+        <v>0.6480714285714286</v>
       </c>
       <c r="F161" t="n">
-        <v>0.633</v>
+        <v>0.6067142857142857</v>
       </c>
       <c r="G161" t="n">
-        <v>0.338</v>
+        <v>0.3242142857142857</v>
       </c>
       <c r="H161" t="n">
-        <v>0.581</v>
+        <v>0.5692142857142858</v>
       </c>
       <c r="I161" t="n">
-        <v>0.433</v>
+        <v>0.4214999999999999</v>
       </c>
       <c r="J161" t="n">
-        <v>0.86</v>
+        <v>0.8431428571428572</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>TransLRavg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.793</v>
+        <v>0.665</v>
       </c>
       <c r="C162" t="n">
-        <v>0.854</v>
+        <v>0.789</v>
       </c>
       <c r="D162" t="n">
-        <v>0.651</v>
+        <v>0.604</v>
       </c>
       <c r="E162" t="n">
-        <v>0.419</v>
+        <v>0.403</v>
       </c>
       <c r="F162" t="n">
-        <v>0.374</v>
+        <v>0.35</v>
       </c>
       <c r="G162" t="n">
-        <v>0.58</v>
+        <v>0.535</v>
       </c>
       <c r="H162" t="n">
-        <v>0.762</v>
+        <v>0.731</v>
       </c>
       <c r="I162" t="n">
-        <v>0.572</v>
+        <v>0.555</v>
       </c>
       <c r="J162" t="n">
-        <v>0.649</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>TransRFavg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.774</v>
+        <v>0.622</v>
       </c>
       <c r="C163" t="n">
-        <v>0.831</v>
+        <v>0.755</v>
       </c>
       <c r="D163" t="n">
-        <v>0.639</v>
+        <v>0.585</v>
       </c>
       <c r="E163" t="n">
-        <v>0.905</v>
+        <v>0.912</v>
       </c>
       <c r="F163" t="n">
-        <v>0.898</v>
+        <v>0.904</v>
       </c>
       <c r="G163" t="n">
-        <v>0.095</v>
+        <v>0.079</v>
       </c>
       <c r="H163" t="n">
-        <v>0.308</v>
+        <v>0.281</v>
       </c>
       <c r="I163" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="J163" t="n">
-        <v>0.968</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>TransNNavg</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -6004,28 +6004,28 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-4.508</v>
+        <v>0.798</v>
       </c>
       <c r="F164" t="n">
-        <v>1.212</v>
+        <v>1.0635</v>
       </c>
       <c r="G164" t="n">
-        <v>0.49</v>
+        <v>0.0765</v>
       </c>
       <c r="H164" t="n">
-        <v>0.7</v>
+        <v>0.276</v>
       </c>
       <c r="I164" t="n">
-        <v>0.7</v>
+        <v>0.223</v>
       </c>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>TransRNNavg</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -6038,28 +6038,28 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-3.001</v>
+        <v>0.823</v>
       </c>
       <c r="F165" t="n">
-        <v>1.364</v>
+        <v>1.088</v>
       </c>
       <c r="G165" t="n">
-        <v>0.356</v>
+        <v>0.067</v>
       </c>
       <c r="H165" t="n">
-        <v>0.597</v>
+        <v>0.259</v>
       </c>
       <c r="I165" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.194</v>
       </c>
       <c r="J165" t="n">
-        <v>-1</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>TransEnsembleavg</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -6072,96 +6072,96 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.644</v>
+        <v>0.672</v>
       </c>
       <c r="F166" t="n">
-        <v>0.616</v>
+        <v>0.643</v>
       </c>
       <c r="G166" t="n">
-        <v>0.355</v>
+        <v>0.295</v>
       </c>
       <c r="H166" t="n">
-        <v>0.596</v>
+        <v>0.543</v>
       </c>
       <c r="I166" t="n">
-        <v>0.443</v>
+        <v>0.407</v>
       </c>
       <c r="J166" t="n">
-        <v>0.849</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.7326</v>
+        <v>0.7058125</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8129333333333334</v>
+        <v>0.807625</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6272666666666668</v>
+        <v>0.61775</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3932</v>
+        <v>0.43725</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3228</v>
+        <v>0.3915625</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5577333333333332</v>
+        <v>0.5237499999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7465999999999998</v>
+        <v>0.7235</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5685333333333333</v>
+        <v>0.5445625000000001</v>
       </c>
       <c r="J167" t="n">
-        <v>0.6343333333333333</v>
+        <v>0.6636875</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.7004666666666668</v>
+        <v>0.6621250000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7748000000000002</v>
+        <v>0.77075</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6035333333333334</v>
+        <v>0.6013124999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9067999999999999</v>
+        <v>0.907875</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8958666666666667</v>
+        <v>0.900375</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08586666666666666</v>
+        <v>0.08581249999999999</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2926</v>
+        <v>0.2926875</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2130666666666667</v>
+        <v>0.21675</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9752666666666667</v>
+        <v>0.97075</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -6174,28 +6174,28 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3947</v>
+        <v>-55.66428124999999</v>
       </c>
       <c r="F169" t="n">
-        <v>2.157066666666667</v>
+        <v>6.367812499999999</v>
       </c>
       <c r="G169" t="n">
-        <v>0.5625333333333332</v>
+        <v>1.5091875</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6606666666666666</v>
+        <v>0.753625</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5189666666666667</v>
+        <v>0.61571875</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6998666666666667</v>
+        <v>0.341125</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -6208,28 +6208,28 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2946</v>
+        <v>-110.2618125</v>
       </c>
       <c r="F170" t="n">
-        <v>3.0744</v>
+        <v>11.6545</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6883333333333332</v>
+        <v>2.8905625</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7211333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="I170" t="n">
-        <v>0.5656</v>
+        <v>1.0036875</v>
       </c>
       <c r="J170" t="n">
-        <v>0.6488666666666667</v>
+        <v>0.06143750000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -6242,96 +6242,96 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6388666666666667</v>
+        <v>0.6633125</v>
       </c>
       <c r="F171" t="n">
-        <v>0.597</v>
+        <v>0.6359374999999999</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3317333333333333</v>
+        <v>0.3135</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5756666666666667</v>
+        <v>0.5597500000000001</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4271333333333333</v>
+        <v>0.4170624999999999</v>
       </c>
       <c r="J171" t="n">
-        <v>0.8446666666666666</v>
+        <v>0.8471249999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.698111111111111</v>
+        <v>0.7132048319327732</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8038333333333333</v>
+        <v>0.8066953781512605</v>
       </c>
       <c r="D172" t="n">
-        <v>0.615</v>
+        <v>0.6205336134453782</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4342222222222222</v>
+        <v>0.4008949579831933</v>
       </c>
       <c r="F172" t="n">
-        <v>0.388</v>
+        <v>0.3377468487394958</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5240555555555555</v>
+        <v>0.548172268907563</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7237777777777777</v>
+        <v>0.7400336134453781</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5447777777777777</v>
+        <v>0.5624275210084034</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6615555555555557</v>
+        <v>0.6389632352941177</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6645000000000001</v>
+        <v>0.6766785714285715</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7723333333333333</v>
+        <v>0.7692899159663866</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6024444444444444</v>
+        <v>0.5983897058823529</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9097777777777778</v>
+        <v>0.9069348739495798</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9024444444444444</v>
+        <v>0.8969768907563025</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08366666666666665</v>
+        <v>0.08538970588235294</v>
       </c>
       <c r="H173" t="n">
-        <v>0.289111111111111</v>
+        <v>0.2917447478991597</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2146666666666667</v>
+        <v>0.2141974789915966</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9717777777777779</v>
+        <v>0.9739537815126049</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -6344,28 +6344,28 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-47.93033333333333</v>
+        <v>-6.0475625</v>
       </c>
       <c r="F174" t="n">
-        <v>4.110055555555555</v>
+        <v>2.286486344537815</v>
       </c>
       <c r="G174" t="n">
-        <v>2.058638888888889</v>
+        <v>0.5367111344537815</v>
       </c>
       <c r="H174" t="n">
-        <v>0.8756388888888889</v>
+        <v>0.5477794117647059</v>
       </c>
       <c r="I174" t="n">
-        <v>0.7892777777777776</v>
+        <v>0.4357148109243698</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7308046218487395</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6378,28 +6378,28 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>-45.83094444444445</v>
+        <v>-12.53075945378151</v>
       </c>
       <c r="F175" t="n">
-        <v>5.257388888888888</v>
+        <v>3.432210084033613</v>
       </c>
       <c r="G175" t="n">
-        <v>3.465888888888889</v>
+        <v>0.8118728991596639</v>
       </c>
       <c r="H175" t="n">
-        <v>1.088333333333333</v>
+        <v>0.6521428571428571</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9447777777777776</v>
+        <v>0.5116523109243697</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6770598739495799</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -6412,192 +6412,22 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6509444444444444</v>
+        <v>0.5788655462184875</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6224444444444445</v>
+        <v>0.5460084033613445</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3233333333333334</v>
+        <v>0.2774789915966386</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5684999999999999</v>
+        <v>0.4945378151260505</v>
       </c>
       <c r="I176" t="n">
-        <v>0.422611111111111</v>
+        <v>0.3676470588235293</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8499444444444444</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.726851851851852</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.8114166666666667</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.6252222222222223</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.400037037037037</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.3336666666666666</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.5521203703703702</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.7427962962962962</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.564574074074074</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.6388703703703703</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.6944722222222223</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.7743888888888889</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.6033518518518519</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.9072962962962962</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.896962962962963</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.08549999999999998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.2920185185185185</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.2133333333333334</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.9746851851851851</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-7.659472222222221</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2.482564814814815</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.8118842592592591</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.6964953703703703</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.5640185185185185</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.675814814814815</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-7.392990740740742</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3.438231481481482</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.151259259259259</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.7823333333333333</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.6287962962962962</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.5962777777777778</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.6408796296296296</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.6012407407407407</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.3303333333333333</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.5744722222222222</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.4263796296296296</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.8455462962962962</v>
+        <v>0.7450840336134454</v>
       </c>
     </row>
   </sheetData>
